--- a/out.xlsx
+++ b/out.xlsx
@@ -10,7 +10,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="9">
+    <numFmt numFmtId="5" formatCode="&quot;£&quot;#,##0;\-&quot;£&quot;#,##0"/>
+    <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
+    <numFmt numFmtId="7" formatCode="&quot;£&quot;#,##0.00;\-&quot;£&quot;#,##0.00"/>
+    <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
   </numFmts>
   <fonts count="1">
@@ -375,102 +383,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>13 Aug 2012</v>
+        <v>Casewise Ltd</v>
       </c>
       <c r="B1" t="str">
-        <v>Channel Advisor</v>
+        <v>02 Sep 2011</v>
       </c>
       <c r="C1" t="str">
-        <v>Software Engineer</v>
+        <v>Project Manager and Business Analyst</v>
       </c>
       <c r="D1" t="str">
-        <v>United Kingdom</v>
+        <v>Watford</v>
       </c>
       <c r="E1" t="str">
-        <v>Negotiable</v>
+        <v/>
       </c>
       <c r="F1" t="str">
-        <v>IrishJobs</v>
+        <v>Corporate website</v>
       </c>
       <c r="G1" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H1" t="str">
-        <v/>
+        <v>WATFORD</v>
       </c>
       <c r="I1" t="str">
-        <v/>
+        <v>01923 830300</v>
       </c>
       <c r="J1" t="str">
-        <v>Padraig Myers</v>
+        <v>David Black</v>
       </c>
       <c r="K1" t="str">
-        <v>Padraig.Myers@channeladvisor.com</v>
-      </c>
-      <c r="L1" t="str">
-        <v/>
+        <v>David.Black@casewise.com</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>08 Aug 2012</v>
+        <v>Casino Tours Abroad</v>
       </c>
       <c r="B2" t="str">
-        <v>Chatterbox Ltd</v>
+        <v>02 Sep 2011</v>
       </c>
       <c r="C2" t="str">
-        <v>Python &amp; Django Developer; Small team at huge scale</v>
+        <v>Software Developer</v>
       </c>
       <c r="D2" t="str">
-        <v>London</v>
+        <v>Newton</v>
       </c>
       <c r="E2" t="str">
-        <v>Salary, Stock Options, Shiny Laptop</v>
+        <v/>
       </c>
       <c r="F2" t="str">
-        <v>LinkedIn</v>
+        <v>Corporate website</v>
       </c>
       <c r="G2" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H2" t="str">
-        <v>Caterham, Surrey</v>
+        <v>WEMBLEY</v>
       </c>
       <c r="I2" t="str">
-        <v>01883-334792</v>
+        <v>020 87951182</v>
       </c>
       <c r="J2" t="str">
-        <v>Dr Stuart Battersby</v>
+        <v>Alan Hughes</v>
       </c>
       <c r="K2" t="str">
-        <v>stuart.battersby@chatterbox.co</v>
-      </c>
-      <c r="L2" t="str">
-        <v>jobs@chatterbox.co</v>
+        <v>alan@casinota.co.uk</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>09 Aug 2012</v>
+        <v>Chaos Design Ltd</v>
       </c>
       <c r="B3" t="str">
-        <v>Cheeky Monkey</v>
+        <v>31 Aug 2011</v>
       </c>
       <c r="C3" t="str">
-        <v>Business Analyst</v>
+        <v>Web Designer</v>
       </c>
       <c r="D3" t="str">
-        <v>Manchester</v>
+        <v>High Street</v>
       </c>
       <c r="E3" t="str">
-        <v>35,000</v>
+        <v/>
       </c>
       <c r="F3" t="str">
         <v>LinkedIn</v>
@@ -479,755 +481,695 @@
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H3" t="str">
-        <v>Bridlington, North Humberside</v>
+        <v>GUILDFORD</v>
       </c>
       <c r="I3" t="str">
-        <v/>
+        <v>01483 557800</v>
       </c>
       <c r="J3" t="str">
-        <v>Nina Dar</v>
+        <v>Peter Campbell</v>
       </c>
       <c r="K3" t="str">
-        <v>ninadar@cheeky-monkey.co</v>
-      </c>
-      <c r="L3" t="str">
-        <v>hello@cheeky-monkey.co</v>
+        <v>peter.c@chaosdesign.com</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>03 Aug 2012</v>
+        <v>Civica Systems Ltd</v>
       </c>
       <c r="B4" t="str">
-        <v>Chisholm Hunter Holdings Ltd</v>
+        <v>01 Sep 2011</v>
       </c>
       <c r="C4" t="str">
-        <v>Graphic Designer</v>
+        <v>Net Developer</v>
       </c>
       <c r="D4" t="str">
-        <v>Glasgow</v>
+        <v>Altrincham</v>
       </c>
       <c r="E4" t="str">
-        <v>From £16,000 to £18,000 per annum Competitive Benefits Package</v>
+        <v/>
       </c>
       <c r="F4" t="str">
-        <v>TotalJobs</v>
+        <v>Corporate website</v>
       </c>
       <c r="G4" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H4" t="str">
-        <v>Glasgow, Lanarkshire</v>
+        <v>ROTHERHAM</v>
       </c>
       <c r="I4" t="str">
-        <v>01412045814</v>
+        <v>01709 787787</v>
       </c>
       <c r="J4" t="str">
-        <v>Phil McBride</v>
+        <v>Adam Knight</v>
       </c>
       <c r="K4" t="str">
-        <v xml:space="preserve">hr@chisholmhunter.co.uk. </v>
-      </c>
-      <c r="L4" t="str">
-        <v/>
+        <v>aknight@civica.co.uk</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>17 Aug 2012</v>
+        <v>Coda Sci Sys</v>
       </c>
       <c r="B5" t="str">
-        <v>ChristianSteven Software Ltd</v>
+        <v>01 Sep 2011</v>
       </c>
       <c r="C5" t="str">
-        <v>Business Analyst</v>
+        <v>Spacecraft On Board Software Engineer SSL HRR RTR</v>
       </c>
       <c r="D5" t="str">
-        <v>Chalgrove</v>
+        <v>Bristol</v>
       </c>
       <c r="E5" t="str">
-        <v>£34,000 - £40,000 per annum</v>
+        <v/>
       </c>
       <c r="F5" t="str">
-        <v>Reed</v>
+        <v>Corporate website</v>
       </c>
       <c r="G5" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H5" t="str">
-        <v/>
+        <v>CHIPPENHAM</v>
       </c>
       <c r="I5" t="str">
-        <v/>
+        <v>01249 466466</v>
       </c>
       <c r="J5" t="str">
-        <v>Steve Amani</v>
+        <v>Peter Murden</v>
       </c>
       <c r="K5" t="str">
-        <v>steven@christiansteven.com</v>
-      </c>
-      <c r="L5" t="str">
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>09 Aug 2012</v>
+        <v>Code Computer Love Ltd</v>
       </c>
       <c r="B6" t="str">
-        <v>Churchill Retirement Living Ltd</v>
+        <v>01 Sep 2011</v>
       </c>
       <c r="C6" t="str">
-        <v>Technical Managers</v>
+        <v>Web Developer</v>
       </c>
       <c r="D6" t="str">
-        <v>Byfleet</v>
+        <v>Manchester</v>
       </c>
       <c r="E6" t="str">
-        <v>None Specified</v>
+        <v/>
       </c>
       <c r="F6" t="str">
-        <v>Building4Jobs</v>
+        <v>Corporate website</v>
       </c>
       <c r="G6" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H6" t="str">
-        <v>Ringwood, Hampshire</v>
+        <v>MANCHESTER</v>
       </c>
       <c r="I6" t="str">
-        <v>01425-462100</v>
+        <v>0161 2762080</v>
       </c>
       <c r="J6" t="str">
-        <v>Nina Nixon</v>
+        <v>Kirsty Hunt</v>
       </c>
       <c r="K6" t="str">
-        <v>Nina.Nixon@churchillretirement.co.uk</v>
-      </c>
-      <c r="L6" t="str">
-        <v/>
+        <v>kirsty.hunt@codecomputerlove.com</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>17 Aug 2012</v>
+        <v>Coexis Software Ltd</v>
       </c>
       <c r="B7" t="str">
-        <v>Churchwood Finance</v>
+        <v>01 Sep 2011</v>
       </c>
       <c r="C7" t="str">
-        <v>Software Developer</v>
+        <v>Business Analyst</v>
       </c>
       <c r="D7" t="str">
-        <v>Stockport</v>
+        <v>United Kingdom</v>
       </c>
       <c r="E7" t="str">
-        <v>Up to £30k</v>
+        <v/>
       </c>
       <c r="F7" t="str">
-        <v>JobServe</v>
+        <v>Corporate website</v>
       </c>
       <c r="G7" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H7" t="str">
-        <v/>
+        <v>RICKMANSWORTH</v>
       </c>
       <c r="I7" t="str">
-        <v/>
+        <v>01923 720477</v>
       </c>
       <c r="J7" t="str">
-        <v>Andrew Cummings</v>
+        <v>Robert DeDominicis</v>
       </c>
       <c r="K7" t="str">
-        <v>andrew-cummings@churchwoodfinancial.co.uk</v>
-      </c>
-      <c r="L7" t="str">
-        <v>careers@churchwoodfinancial.co.uk</v>
+        <v>rob.dedominicis@gbst.com</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>17 Aug 2012</v>
+        <v>Contemporary plc</v>
       </c>
       <c r="B8" t="str">
-        <v>Churchwood Finance</v>
+        <v>02 Sep 2011</v>
       </c>
       <c r="C8" t="str">
-        <v>Software Developer - MS SQL, Visual Basic 6, C# .net</v>
+        <v>SAP BusinessObjects Business Intelligence Consultant</v>
       </c>
       <c r="D8" t="str">
-        <v>Stockport</v>
+        <v>Midlands</v>
       </c>
       <c r="E8" t="str">
-        <v>275 Per Day</v>
+        <v>�30,000 to �55,000 + car allowance + bonus</v>
       </c>
       <c r="F8" t="str">
-        <v>JobServe</v>
+        <v>Corporate website</v>
       </c>
       <c r="G8" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H8" t="str">
-        <v/>
+        <v>ASCOT</v>
       </c>
       <c r="I8" t="str">
-        <v/>
+        <v>01344 297600</v>
       </c>
       <c r="J8" t="str">
-        <v>Andrew Cummings</v>
+        <v/>
       </c>
       <c r="K8" t="str">
-        <v>andrew-cummings@churchwoodfinancial.co.uk</v>
-      </c>
-      <c r="L8" t="str">
-        <v>careers@churchwoodfinancial.co.uk</v>
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>17 Aug 2012</v>
+        <v>Continental Data Graphics Ltd</v>
       </c>
       <c r="B9" t="str">
-        <v>Citypoint Trading Limited</v>
+        <v>02 Sep 2011</v>
       </c>
       <c r="C9" t="str">
-        <v>IT Manager</v>
+        <v>Software Developer IV</v>
       </c>
       <c r="D9" t="str">
         <v>City of London</v>
       </c>
       <c r="E9" t="str">
-        <v>Salary: £45,000 – £65,000 per annum</v>
+        <v/>
       </c>
       <c r="F9" t="str">
-        <v>LinkedIn</v>
+        <v>Corporate website</v>
       </c>
       <c r="G9" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H9" t="str">
-        <v/>
+        <v>KNARESBOROUGH</v>
       </c>
       <c r="I9" t="str">
-        <v/>
+        <v>01423 867867</v>
       </c>
       <c r="J9" t="str">
-        <v>Sandra Frampton</v>
+        <v>Jack M. Patterson</v>
       </c>
       <c r="K9" t="str">
-        <v>sandra.frampton@citypointtrading.com</v>
-      </c>
-      <c r="L9" t="str">
-        <v xml:space="preserve">jobs@CitypointTrading.com </v>
+        <v>mpatterson@cdgnow.com</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>17 Aug 2012</v>
+        <v>Contract Interiors International</v>
       </c>
       <c r="B10" t="str">
-        <v>Claires Accessories Uk Ltd</v>
+        <v>02 Sep 2011</v>
       </c>
       <c r="C10" t="str">
-        <v>Senior Systems Developer - MS SQL Server 2000/SQL Server 2005/SQL Server 2008</v>
+        <v>Junior Coldfusion Developer</v>
       </c>
       <c r="D10" t="str">
-        <v>Birmingham</v>
+        <v>Elstree</v>
       </c>
       <c r="E10" t="str">
-        <v/>
+        <v>£23000 - £26000 per annum</v>
       </c>
       <c r="F10" t="str">
-        <v>JobServe</v>
+        <v>Corporate website</v>
       </c>
       <c r="G10" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H10" t="str">
-        <v>Birmingham, West Midlands</v>
+        <v>BARNET</v>
       </c>
       <c r="I10" t="str">
-        <v>0121-682-8000</v>
+        <v>020 84403828</v>
       </c>
       <c r="J10" t="str">
-        <v>Louise Askey</v>
+        <v>Hayley Roy</v>
       </c>
       <c r="K10" t="str">
-        <v>louise.zwerner@claires.co.uk</v>
-      </c>
-      <c r="L10" t="str">
-        <v/>
+        <v>hroy@contractinteriors.co.uk</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>08 Aug 2012</v>
+        <v>Copa Ltd</v>
       </c>
       <c r="B11" t="str">
-        <v>Click Consultancy Ltd</v>
+        <v>02 Sep 2011</v>
       </c>
       <c r="C11" t="str">
-        <v>Senior Systems Developer - MS SQL Server 2000/SQL Server 2005/SQL Server 2008</v>
+        <v>Control Software Engineer</v>
       </c>
       <c r="D11" t="str">
-        <v>Merseyside</v>
+        <v>Wolverhampton</v>
       </c>
       <c r="E11" t="str">
-        <v>Upto £20,000 per annum (depending on experience)</v>
+        <v/>
       </c>
       <c r="F11" t="str">
-        <v>TotalJobs</v>
+        <v>Corporate website</v>
       </c>
       <c r="G11" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H11" t="str">
-        <v>Manchester</v>
+        <v>TONBRIDGE</v>
       </c>
       <c r="I11" t="str">
-        <v/>
+        <v>01622 833914</v>
       </c>
       <c r="J11" t="str">
-        <v>Gail Jones</v>
+        <v/>
       </c>
       <c r="K11" t="str">
-        <v>gail@clickconsultancy.com</v>
-      </c>
-      <c r="L11" t="str">
-        <v>info@clickconsultancy.com</v>
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>14 Aug 2012</v>
+        <v>Cospeed Limited</v>
       </c>
       <c r="B12" t="str">
-        <v>Clicksoftware Europe Ltd</v>
+        <v>02 Sep 2011</v>
       </c>
       <c r="C12" t="str">
-        <v>Solution Consultant EU</v>
+        <v>ASP.NET/C#/SQL home developer in UK for Telecommunication company</v>
       </c>
       <c r="D12" t="str">
-        <v>Slough</v>
+        <v>United Kingdom</v>
       </c>
       <c r="E12" t="str">
-        <v>Dependant On Experience</v>
+        <v>Negotiable Depending On Experience</v>
       </c>
       <c r="F12" t="str">
-        <v>Monster</v>
+        <v>JobServe</v>
       </c>
       <c r="G12" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H12" t="str">
-        <v>London</v>
+        <v>BOREHAMWOOD</v>
       </c>
       <c r="I12" t="str">
-        <v>01628607000</v>
+        <v/>
       </c>
       <c r="J12" t="str">
-        <v>Hagit Efrati</v>
+        <v>John Strudwick</v>
       </c>
       <c r="K12" t="str">
-        <v>hagit.efrati@clicksoftware.com</v>
-      </c>
-      <c r="L12" t="str">
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>17 Aug 2012</v>
+        <v>Cravenplan Computers Ltd</v>
       </c>
       <c r="B13" t="str">
-        <v>ClickThrough Marketing</v>
+        <v>01 Sep 2011</v>
       </c>
       <c r="C13" t="str">
-        <v>Web Developer</v>
+        <v>Web Development Programmer Cool ICE Mapper</v>
       </c>
       <c r="D13" t="str">
-        <v>Lichfield</v>
+        <v>United Kingdom</v>
       </c>
       <c r="E13" t="str">
-        <v>£15000 to £23000 Per Annum</v>
+        <v>�40 per hour</v>
       </c>
       <c r="F13" t="str">
-        <v>jobcentreplus</v>
+        <v>Corporate website</v>
       </c>
       <c r="G13" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H13" t="str">
-        <v/>
+        <v>SALISBURY</v>
       </c>
       <c r="I13" t="str">
-        <v/>
+        <v>01747 858000</v>
       </c>
       <c r="J13" t="str">
-        <v>Michelle Crane</v>
+        <v>Chris Stanbury</v>
       </c>
       <c r="K13" t="str">
-        <v>mccrane@clickthrough-marketing.com</v>
-      </c>
-      <c r="L13" t="str">
-        <v/>
+        <v>chris@cravenplan.co.uk</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>07 Aug 2012</v>
+        <v>Cravenplan Computers Ltd</v>
       </c>
       <c r="B14" t="str">
-        <v>Clifton Asset Management Plc</v>
+        <v>01 Sep 2011</v>
       </c>
       <c r="C14" t="str">
-        <v>CRM Developer / CRM Specialist / Consultant - MS Dynamics</v>
+        <v>Web Designer</v>
       </c>
       <c r="D14" t="str">
-        <v>Ham</v>
+        <v>Salisbury</v>
       </c>
       <c r="E14" t="str">
-        <v>Salary range £30000-£35000</v>
+        <v>�20,000 - �30,000 + benefits</v>
       </c>
       <c r="F14" t="str">
-        <v>LinkedIn</v>
+        <v>Corporate website</v>
       </c>
       <c r="G14" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H14" t="str">
-        <v>Bristol, Avon</v>
+        <v>SALISBURY</v>
       </c>
       <c r="I14" t="str">
-        <v/>
+        <v>01747 858000</v>
       </c>
       <c r="J14" t="str">
-        <v>Adam Tavener</v>
+        <v>Chris Stanbury</v>
       </c>
       <c r="K14" t="str">
-        <v>adam.tavener@cliftonasset.co.uk</v>
-      </c>
-      <c r="L14" t="str">
-        <v/>
+        <v>chris@cravenplan.co.uk</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>02 Aug 2012</v>
+        <v>Cravenplan Computers Ltd</v>
       </c>
       <c r="B15" t="str">
-        <v>Cole Enterprise Ltd</v>
+        <v>01 Sep 2011</v>
       </c>
       <c r="C15" t="str">
-        <v>C++ Software Developer - Surrey</v>
+        <v>SEO</v>
       </c>
       <c r="D15" t="str">
-        <v>Dorking</v>
+        <v>Salisbury</v>
       </c>
       <c r="E15" t="str">
-        <v>Monthly Paid Salary</v>
+        <v>�15,000 - �45,000</v>
       </c>
       <c r="F15" t="str">
-        <v>TechnoJobs</v>
+        <v>Corporate website</v>
       </c>
       <c r="G15" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H15" t="str">
-        <v>Dorking, Surrey</v>
+        <v>SALISBURY</v>
       </c>
       <c r="I15" t="str">
-        <v/>
+        <v>01747 858000</v>
       </c>
       <c r="J15" t="str">
-        <v>Andy Cole</v>
+        <v>Chris Stanbury</v>
       </c>
       <c r="K15" t="str">
-        <v>andy@sports-coach.com</v>
-      </c>
-      <c r="L15" t="str">
-        <v/>
+        <v>chris@cravenplan.co.uk</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>03 Aug 2012</v>
+        <v>Craneware plc</v>
       </c>
       <c r="B16" t="str">
-        <v>Cole Enterprise Ltd</v>
+        <v>01 Sep 2011</v>
       </c>
       <c r="C16" t="str">
-        <v>C++ Software Developer</v>
+        <v>Developer</v>
       </c>
       <c r="D16" t="str">
-        <v>Dorking</v>
+        <v>United Kingdom</v>
       </c>
       <c r="E16" t="str">
-        <v>£30,000 - £36,000 per annum</v>
+        <v/>
       </c>
       <c r="F16" t="str">
-        <v>jobcentreplus</v>
+        <v>Corporate website</v>
       </c>
       <c r="G16" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H16" t="str">
-        <v>Dorking, Surrey</v>
+        <v>LIVINGSTON</v>
       </c>
       <c r="I16" t="str">
-        <v/>
+        <v>01506 407666</v>
       </c>
       <c r="J16" t="str">
-        <v>Andy Cole</v>
+        <v>Derek Peterson</v>
       </c>
       <c r="K16" t="str">
-        <v>andy@sports-coach.com</v>
-      </c>
-      <c r="L16" t="str">
-        <v/>
+        <v>d.peterson@craneware.com</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>16 Aug 2012</v>
+        <v>Craegmoor Ltd</v>
       </c>
       <c r="B17" t="str">
-        <v>Collis Great Britiain Limited</v>
+        <v>02 Sep 2011</v>
       </c>
       <c r="C17" t="str">
-        <v>Technical Consultant, Software Engineer - Java, Mobile, SmartCard, NFC</v>
+        <v>Digital Marketing Specialist</v>
       </c>
       <c r="D17" t="str">
-        <v>Edinburgh</v>
+        <v>Worcester</v>
       </c>
       <c r="E17" t="str">
-        <v/>
+        <v>�30,000 to �35,000 per annum</v>
       </c>
       <c r="F17" t="str">
-        <v>CwJobs</v>
+        <v>Corporate website</v>
       </c>
       <c r="G17" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H17" t="str">
-        <v/>
+        <v>BRISTOL</v>
       </c>
       <c r="I17" t="str">
-        <v/>
+        <v>0117 9593427</v>
       </c>
       <c r="J17" t="str">
-        <v>Rosalien Welle</v>
+        <v xml:space="preserve">Caroline Thompson </v>
       </c>
       <c r="K17" t="str">
-        <v>jobs@collis.nl</v>
-      </c>
-      <c r="L17" t="str">
-        <v/>
+        <v>caroline.thompson@craegmoor.co.uk</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>07 Aug 2012</v>
+        <v>Crossover Technologies</v>
       </c>
       <c r="B18" t="str">
-        <v>Colourbox Ltd</v>
+        <v>01 Sep 2011</v>
       </c>
       <c r="C18" t="str">
-        <v>GRAPHIC DESIGNER (CREATIVE SPARK)</v>
+        <v>VB and ASP . Net Developer</v>
       </c>
       <c r="D18" t="str">
-        <v>Swansea</v>
+        <v>Bristol</v>
       </c>
       <c r="E18" t="str">
-        <v>£14000.00 TO £18000.00 PER ANNUM</v>
+        <v>Based on experience</v>
       </c>
       <c r="F18" t="str">
-        <v>jobcentreplus</v>
+        <v>PurelyIT</v>
       </c>
       <c r="G18" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H18" t="str">
-        <v>Leeds, West Yorkshire</v>
+        <v>BRISTOL</v>
       </c>
       <c r="I18" t="str">
-        <v/>
+        <v>08709 006410</v>
       </c>
       <c r="J18" t="str">
-        <v>Daryl Edgecombe</v>
+        <v>Philip Barnard</v>
       </c>
       <c r="K18" t="str">
-        <v>daryl@colourbox.info</v>
-      </c>
-      <c r="L18" t="str">
-        <v/>
+        <v>phil.barnard@crossover.co.uk</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>07 Aug 2012</v>
+        <v>Cummins Turbo Technologies</v>
       </c>
       <c r="B19" t="str">
-        <v>Conception Marketing Ltd</v>
+        <v>01 Sep 2011</v>
       </c>
       <c r="C19" t="str">
-        <v>Adobe Illustrator</v>
+        <v>Worldwide Test Technology Manager</v>
       </c>
       <c r="D19" t="str">
-        <v>Send</v>
+        <v>Huddersfield</v>
       </c>
       <c r="E19" t="str">
-        <v/>
+        <v>£57,500 + Benefits (Pension, Fully Expensed Car or Car Option and Healthcare)</v>
       </c>
       <c r="F19" t="str">
-        <v>Corporate website</v>
+        <v>TopEngineeringJobs</v>
       </c>
       <c r="G19" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H19" t="str">
-        <v>Liverpool, Merseyside</v>
+        <v>HUDDERSFIELD</v>
       </c>
       <c r="I19" t="str">
-        <v>0151-724-3681</v>
+        <v>01484 538496</v>
       </c>
       <c r="J19" t="str">
-        <v>Stephen Woolman</v>
+        <v>James Moorhouse</v>
       </c>
       <c r="K19" t="str">
-        <v>stephen@theconception.co.uk</v>
-      </c>
-      <c r="L19" t="str">
-        <v>recruitment@theconception.co.uk</v>
+        <v>james.moorhouse@cummins.com</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>15 Aug 2012</v>
+        <v>Dazed Group</v>
       </c>
       <c r="B20" t="str">
-        <v>Concrete Canvas Ltd</v>
+        <v>01 Sep 2011</v>
       </c>
       <c r="C20" t="str">
-        <v>Graduate Graphic Designer</v>
+        <v>Digital Director</v>
       </c>
       <c r="D20" t="str">
-        <v>Cardiff</v>
+        <v>United Kingdom</v>
       </c>
       <c r="E20" t="str">
-        <v>£18,000.00 - £23,000.00 per year Annual Bonus</v>
+        <v>Competitive</v>
       </c>
       <c r="F20" t="str">
-        <v>Monster</v>
+        <v>NMA</v>
       </c>
       <c r="G20" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H20" t="str">
-        <v>Pontypridd, Mid Glamorgan</v>
+        <v>LONDON</v>
       </c>
       <c r="I20" t="str">
         <v/>
       </c>
       <c r="J20" t="str">
-        <v>Peter Brewin</v>
+        <v>Alistair Allan</v>
       </c>
       <c r="K20" t="str">
-        <v>peter.brewin@concretecanvass.co.uk</v>
-      </c>
-      <c r="L20" t="str">
-        <v>jobs@concretecanvas.co.uk</v>
+        <v>alistair@dazedgroup.com</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>17 Aug 2012</v>
+        <v>Definitive Applications</v>
       </c>
       <c r="B21" t="str">
-        <v>Configit A/S</v>
+        <v>01 Sep 2011</v>
       </c>
       <c r="C21" t="str">
-        <v>Software Testers</v>
+        <v>NET Software Developer</v>
       </c>
       <c r="D21" t="str">
-        <v>Warwick</v>
+        <v>United Kingdom</v>
       </c>
       <c r="E21" t="str">
-        <v>Upto £40,000 per annum</v>
+        <v>�23k per annum</v>
       </c>
       <c r="F21" t="str">
-        <v>CwJobs</v>
+        <v>Corporate website</v>
       </c>
       <c r="G21" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H21" t="str">
-        <v/>
+        <v>NEWBURY</v>
       </c>
       <c r="I21" t="str">
-        <v/>
+        <v>01635 551777</v>
       </c>
       <c r="J21" t="str">
-        <v>Jon Shaw</v>
+        <v>Salma Bryant</v>
       </c>
       <c r="K21" t="str">
-        <v>jon.shaw@configit.com</v>
-      </c>
-      <c r="L21" t="str">
-        <v xml:space="preserve"> jobs@configit.com</v>
+        <v>salma.bryant@sorce.co.uk</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>13 Aug 2012</v>
+        <v>Delcam</v>
       </c>
       <c r="B22" t="str">
-        <v>Consol Uk Ltd</v>
+        <v>02 Sep 2011</v>
       </c>
       <c r="C22" t="str">
-        <v>Mobile Web Developer</v>
+        <v>Software Engineer</v>
       </c>
       <c r="D22" t="str">
-        <v>London</v>
+        <v>Birmingham</v>
       </c>
       <c r="E22" t="str">
-        <v>From £40,000 to £45,000 per year</v>
+        <v/>
       </c>
       <c r="F22" t="str">
-        <v>JobSearch</v>
+        <v>Corporate website</v>
       </c>
       <c r="G22" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H22" t="str">
-        <v>Hook, Hampshire</v>
+        <v>BIRMINGHAM</v>
       </c>
       <c r="I22" t="str">
-        <v/>
+        <v>0121 7665544</v>
       </c>
       <c r="J22" t="str">
-        <v>Ryan Adams</v>
+        <v/>
       </c>
       <c r="K22" t="str">
-        <v>ryan.adams@consolpartners.com</v>
-      </c>
-      <c r="L22" t="str">
         <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>08 Aug 2012</v>
+        <v>Dna Solutions</v>
       </c>
       <c r="B23" t="str">
-        <v>Controlled Therapeutics (Scotland) Ltd</v>
+        <v>02 Sep 2011</v>
       </c>
       <c r="C23" t="str">
-        <v>QA Specialist Validation</v>
+        <v>Post Sales Technical Support Engineers Technical Department</v>
       </c>
       <c r="D23" t="str">
-        <v>Ferring</v>
+        <v>Slough</v>
       </c>
       <c r="E23" t="str">
         <v/>
@@ -1239,632 +1181,511 @@
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H23" t="str">
-        <v>Lanark, Lanarkshire</v>
+        <v>SLOUGH</v>
       </c>
       <c r="I23" t="str">
-        <v>01355-239166</v>
+        <v>01753 571186</v>
       </c>
       <c r="J23" t="str">
-        <v>Eleanor Campbell</v>
+        <v/>
       </c>
       <c r="K23" t="str">
-        <v>eleanor.campbell@ferring.com</v>
-      </c>
-      <c r="L23" t="str">
-        <v>CH3-RecruitmentFICSA@ferring.com</v>
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>02 Aug 2012</v>
+        <v>E2v Technologies Ltd</v>
       </c>
       <c r="B24" t="str">
-        <v>Cooper MEDC</v>
+        <v>02 Sep 2011</v>
       </c>
       <c r="C24" t="str">
-        <v>Hardware/Firmware Engineer</v>
+        <v>Software Development Engineer</v>
       </c>
       <c r="D24" t="str">
-        <v>Pinxton</v>
+        <v>Bulk</v>
       </c>
       <c r="E24" t="str">
-        <v>£26,000.00 - £30,000.00 Annual Salary</v>
+        <v/>
       </c>
       <c r="F24" t="str">
-        <v>Monster</v>
+        <v>Corporate website</v>
       </c>
       <c r="G24" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H24" t="str">
-        <v/>
+        <v>CHELMSFORD</v>
       </c>
       <c r="I24" t="str">
-        <v/>
+        <v>01245 493493</v>
       </c>
       <c r="J24" t="str">
-        <v>Jo-Ann Haughton</v>
+        <v>Daren Carpenter</v>
       </c>
       <c r="K24" t="str">
-        <v>jo-ann.haughton@cooperindustries.com</v>
-      </c>
-      <c r="L24" t="str">
         <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>14 Aug 2012</v>
+        <v>Egain Communications Ltd</v>
       </c>
       <c r="B25" t="str">
-        <v>Core Creative Ltd</v>
+        <v>02 Sep 2011</v>
       </c>
       <c r="C25" t="str">
-        <v>Web Developers for Core Creative</v>
+        <v>Web Developer</v>
       </c>
       <c r="D25" t="str">
-        <v>Somerset</v>
+        <v>Slough</v>
       </c>
       <c r="E25" t="str">
-        <v>DOE</v>
+        <v/>
       </c>
       <c r="F25" t="str">
-        <v>Creativepool</v>
+        <v>Corporate website</v>
       </c>
       <c r="G25" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H25" t="str">
-        <v>Yeovil, Somerset</v>
+        <v>SLOUGH</v>
       </c>
       <c r="I25" t="str">
-        <v/>
+        <v>01753 464646</v>
       </c>
       <c r="J25" t="str">
-        <v>Matt Hellier</v>
+        <v>Jamie Abayan</v>
       </c>
       <c r="K25" t="str">
-        <v>matt@corecreative.info</v>
-      </c>
-      <c r="L25" t="str">
-        <v/>
+        <v>jabayan@egain.com</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>09 Aug 2012</v>
+        <v>Eleco plc</v>
       </c>
       <c r="B26" t="str">
-        <v>Corelogic Ltd</v>
+        <v>01 Sep 2011</v>
       </c>
       <c r="C26" t="str">
-        <v>Java Developer - London or Edinburgh</v>
+        <v>Digital Marketing &amp; Web Administrator</v>
       </c>
       <c r="D26" t="str">
         <v>London</v>
       </c>
       <c r="E26" t="str">
-        <v>£35,000 to £42,000 per annum + Benefits</v>
+        <v>£25,000 - £28,000 per annum, pro-rata</v>
       </c>
       <c r="F26" t="str">
-        <v>LinkedIn</v>
+        <v>Reed</v>
       </c>
       <c r="G26" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H26" t="str">
-        <v>London</v>
+        <v>WARE</v>
       </c>
       <c r="I26" t="str">
-        <v>020-7354-8000</v>
+        <v>01920 443830</v>
       </c>
       <c r="J26" t="str">
-        <v>Peter Stimson</v>
+        <v>Matthew Turner</v>
       </c>
       <c r="K26" t="str">
-        <v>peter.stimson@corelogic.co.uk</v>
-      </c>
-      <c r="L26" t="str">
-        <v>info@corelogic.co.uk</v>
+        <v>matthew.turner@shoremountain.co.uk</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>07 Aug 2012</v>
+        <v>Envitia Ltd</v>
       </c>
       <c r="B27" t="str">
-        <v>Cornerstone Ondemand Ltd</v>
+        <v>01 Sep 2011</v>
       </c>
       <c r="C27" t="str">
-        <v>Technical Project Manager (Integration Consultant)</v>
+        <v>Software Engineer</v>
       </c>
       <c r="D27" t="str">
-        <v>London</v>
+        <v>Horsham</v>
       </c>
       <c r="E27" t="str">
         <v/>
       </c>
       <c r="F27" t="str">
-        <v>LinkedIn</v>
+        <v>Corporate website</v>
       </c>
       <c r="G27" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H27" t="str">
-        <v>London</v>
+        <v>HORSHAM</v>
       </c>
       <c r="I27" t="str">
-        <v/>
+        <v>01403 273173</v>
       </c>
       <c r="J27" t="str">
-        <v>Mark Goldin</v>
+        <v>Nick Jones</v>
       </c>
       <c r="K27" t="str">
-        <v>mark.goldin@cornerstoneondemand.co.uk</v>
-      </c>
-      <c r="L27" t="str">
-        <v/>
+        <v>nick.jones@tenet.co.uk</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>17 Aug 2012</v>
+        <v>Envitia Ltd</v>
       </c>
       <c r="B28" t="str">
-        <v>Corporate Office Europe</v>
+        <v>01 Sep 2011</v>
       </c>
       <c r="C28" t="str">
-        <v>Junior Data Analyst</v>
+        <v>Senior Software Engineer</v>
       </c>
       <c r="D28" t="str">
-        <v>Coventry</v>
+        <v>Horsham</v>
       </c>
       <c r="E28" t="str">
-        <v>Upto £18,000 per annum plus bonus, healthcare, pension &amp; 34 days leave</v>
+        <v/>
       </c>
       <c r="F28" t="str">
-        <v>TotalJobs</v>
+        <v>Corporate website</v>
       </c>
       <c r="G28" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H28" t="str">
-        <v>Glasgow, Lanarkshire</v>
+        <v>HORSHAM</v>
       </c>
       <c r="I28" t="str">
-        <v>0141-571-3400</v>
+        <v>01403 273173</v>
       </c>
       <c r="J28" t="str">
-        <v>Emma Parker</v>
+        <v>Nick Jones</v>
       </c>
       <c r="K28" t="str">
-        <v>emma.parker@corporateoffice.co.uk</v>
-      </c>
-      <c r="L28" t="str">
-        <v/>
+        <v>nick.jones@tenet.co.uk</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>14 Aug 2012</v>
+        <v>ESP Systex Ltd.</v>
       </c>
       <c r="B29" t="str">
-        <v>Corporatec (London) Ltd</v>
+        <v>02 Sep 2011</v>
       </c>
       <c r="C29" t="str">
-        <v>Desktop Support Analyst</v>
+        <v>Network Administrator</v>
       </c>
       <c r="D29" t="str">
-        <v>London</v>
+        <v>Kingston upon Hull</v>
       </c>
       <c r="E29" t="str">
-        <v>£28,000 - £32,000 per annum</v>
+        <v>TBA</v>
       </c>
       <c r="F29" t="str">
-        <v>Reed</v>
+        <v>Jobsite</v>
       </c>
       <c r="G29" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H29" t="str">
-        <v>Hitchin, Hertfordshire</v>
+        <v>HULL</v>
       </c>
       <c r="I29" t="str">
-        <v/>
+        <v>01482 - 384500</v>
       </c>
       <c r="J29" t="str">
-        <v>Vas Proud</v>
+        <v>Terry Dunn</v>
       </c>
       <c r="K29" t="str">
-        <v>vas@corporatec.co.uk</v>
-      </c>
-      <c r="L29" t="str">
-        <v/>
+        <v>terry@espsystex.co.uk</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>15 Aug 2012</v>
+        <v>Expert Systems Ltd</v>
       </c>
       <c r="B30" t="str">
-        <v>Coverpoint Foodservice Consultants</v>
+        <v>02 Sep 2011</v>
       </c>
       <c r="C30" t="str">
-        <v>Web &amp; Social Media Coordinator - Foodservice Consultancy, Twyford, Berkshire</v>
+        <v>SEO</v>
       </c>
       <c r="D30" t="str">
-        <v>Twyford</v>
+        <v>West Yorkshire</v>
       </c>
       <c r="E30" t="str">
-        <v>Starting Salary from £18,000</v>
+        <v/>
       </c>
       <c r="F30" t="str">
-        <v>BigHospitality</v>
+        <v>Corporate website</v>
       </c>
       <c r="G30" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H30" t="str">
-        <v/>
+        <v>DEWSBURY</v>
       </c>
       <c r="I30" t="str">
-        <v/>
+        <v>01924 488612</v>
       </c>
       <c r="J30" t="str">
-        <v>Jonathan Doughty</v>
+        <v>Gareth James</v>
       </c>
       <c r="K30" t="str">
-        <v>jdoughty@coverpoint.co.uk</v>
-      </c>
-      <c r="L30" t="str">
-        <v/>
+        <v>gareth.james@eitex.co.uk</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>09 Aug 2012</v>
+        <v>Ezcctv.Com</v>
       </c>
       <c r="B31" t="str">
-        <v>Createthe Group Limited</v>
+        <v>01 Sep 2011</v>
       </c>
       <c r="C31" t="str">
-        <v>Digital Account Manager</v>
+        <v>Technical Support Specialist</v>
       </c>
       <c r="D31" t="str">
-        <v>London</v>
+        <v>United Kingdom</v>
       </c>
       <c r="E31" t="str">
-        <v>Competitive rates of pay apply</v>
+        <v/>
       </c>
       <c r="F31" t="str">
-        <v>jobcentreplus</v>
+        <v>Corporate website</v>
       </c>
       <c r="G31" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H31" t="str">
-        <v/>
+        <v>LETCHWORTH GARDEN CITY</v>
       </c>
       <c r="I31" t="str">
-        <v/>
+        <v>01462 708820</v>
       </c>
       <c r="J31" t="str">
-        <v>Rebecca Daly</v>
+        <v>Joss Cohen</v>
       </c>
       <c r="K31" t="str">
-        <v>rdaly@createthegroup.com</v>
-      </c>
-      <c r="L31" t="str">
-        <v>londonjobs@createthegroup.com</v>
+        <v>joss@ezcctv.com</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>17 Aug 2012</v>
+        <v>Fathom Business Solutions</v>
       </c>
       <c r="B32" t="str">
-        <v>Creative Lynx</v>
+        <v>02 Sep 2011</v>
       </c>
       <c r="C32" t="str">
-        <v>Middle-Weight Developer</v>
+        <v>Applications Developer</v>
       </c>
       <c r="D32" t="str">
-        <v>Manchester</v>
+        <v>Fathom</v>
       </c>
       <c r="E32" t="str">
-        <v>Salary negotiable</v>
+        <v>£28000 - £35000 p.a.</v>
       </c>
       <c r="F32" t="str">
-        <v>Reed</v>
+        <v>Corporate website</v>
       </c>
       <c r="G32" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H32" t="str">
-        <v>Manchester</v>
+        <v>PURLEY</v>
       </c>
       <c r="I32" t="str">
-        <v/>
+        <v>08451 235810</v>
       </c>
       <c r="J32" t="str">
-        <v>Lisa Jones</v>
+        <v>Matt Gates</v>
       </c>
       <c r="K32" t="str">
-        <v>lisa.jones@creativelynx.co.uk</v>
-      </c>
-      <c r="L32" t="str">
-        <v/>
+        <v>mg@fathomgroup.co.uk</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>17 Aug 2012</v>
+        <v>Fernlea</v>
       </c>
       <c r="B33" t="str">
-        <v>Creative Lynx</v>
+        <v>01 Sep 2011</v>
       </c>
       <c r="C33" t="str">
-        <v>Digital Project Manager</v>
+        <v>Digital Marketing Specialist</v>
       </c>
       <c r="D33" t="str">
-        <v>Manchester</v>
+        <v>Worcester</v>
       </c>
       <c r="E33" t="str">
-        <v>£10,000 - £50,000 per annum</v>
+        <v>�30,000 to �35,000 per annum</v>
       </c>
       <c r="F33" t="str">
-        <v>Reed</v>
+        <v>Corporate website</v>
       </c>
       <c r="G33" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H33" t="str">
-        <v>Manchester</v>
+        <v>BROCKENHURST</v>
       </c>
       <c r="I33" t="str">
-        <v/>
+        <v>01590 623237</v>
       </c>
       <c r="J33" t="str">
-        <v>Lisa Jones</v>
+        <v xml:space="preserve">Caroline Thompson </v>
       </c>
       <c r="K33" t="str">
-        <v>lisa.jones@creativelynx.co.uk</v>
-      </c>
-      <c r="L33" t="str">
-        <v/>
+        <v>caroline.thompson@craegmoor.co.uk</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>09 Aug 2012</v>
+        <v>Fidessa plc</v>
       </c>
       <c r="B34" t="str">
-        <v>Creative Print</v>
+        <v>01 Sep 2011</v>
       </c>
       <c r="C34" t="str">
-        <v>Graphic Designer</v>
+        <v>Java Web Developer F</v>
       </c>
       <c r="D34" t="str">
-        <v>Birmingham</v>
+        <v>Woking</v>
       </c>
       <c r="E34" t="str">
-        <v>£18,000 - £25,000 per annum</v>
+        <v/>
       </c>
       <c r="F34" t="str">
-        <v>Reed</v>
+        <v>Corporate website</v>
       </c>
       <c r="G34" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H34" t="str">
-        <v>Liverpool, Merseyside</v>
+        <v>WOKING</v>
       </c>
       <c r="I34" t="str">
-        <v/>
+        <v>01483 206300</v>
       </c>
       <c r="J34" t="str">
-        <v>Lara Holmes</v>
+        <v>Angie Walker</v>
       </c>
       <c r="K34" t="str">
-        <v>lara.holmes@printcreative.ltd.uk</v>
-      </c>
-      <c r="L34" t="str">
-        <v>recruitment@printcreative.ltd.uk</v>
+        <v>angie.walker@fidessa.com</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>08 Aug 2012</v>
+        <v>Fidessa plc</v>
       </c>
       <c r="B35" t="str">
-        <v>Crimson Cat</v>
+        <v>01 Sep 2011</v>
       </c>
       <c r="C35" t="str">
-        <v>Graphic Designer</v>
+        <v>SAP ABAP Developer RBF</v>
       </c>
       <c r="D35" t="str">
-        <v>Nottingham</v>
+        <v>Woking</v>
       </c>
       <c r="E35" t="str">
-        <v>Unspecified</v>
+        <v/>
       </c>
       <c r="F35" t="str">
-        <v>TotalJobs</v>
+        <v>Corporate website</v>
       </c>
       <c r="G35" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H35" t="str">
-        <v/>
+        <v>WOKING</v>
       </c>
       <c r="I35" t="str">
-        <v/>
+        <v>01483 206300</v>
       </c>
       <c r="J35" t="str">
-        <v>Angela Neale</v>
+        <v>Angie Walker</v>
       </c>
       <c r="K35" t="str">
-        <v>angela.neale@crimsoncat.co.uk</v>
-      </c>
-      <c r="L35" t="str">
-        <v/>
+        <v>angie.walker@fidessa.com</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>17 Aug 2012</v>
+        <v>G Jan Computers Ltd</v>
       </c>
       <c r="B36" t="str">
-        <v>Crown Packaging Uk Plc</v>
+        <v>02 Sep 2011</v>
       </c>
       <c r="C36" t="str">
-        <v>Web Application Developer</v>
+        <v>Software Engineer</v>
       </c>
       <c r="D36" t="str">
-        <v>Oxfordshire</v>
+        <v>Redbourn</v>
       </c>
       <c r="E36" t="str">
-        <v>Upto £35,000 per annum dependent on experience+benefits</v>
+        <v/>
       </c>
       <c r="F36" t="str">
-        <v>TotalJobs</v>
+        <v>Corporate website</v>
       </c>
       <c r="G36" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H36" t="str">
-        <v>Worcester, Worcestershire</v>
+        <v>HEMEL HEMPSTEAD</v>
       </c>
       <c r="I36" t="str">
-        <v>01905-762000</v>
+        <v>01442 241396</v>
       </c>
       <c r="J36" t="str">
-        <v/>
+        <v>Gita Patel</v>
       </c>
       <c r="K36" t="str">
-        <v/>
-      </c>
-      <c r="L36" t="str">
         <v/>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>16 Aug 2012</v>
+        <v>G M W Mobile Servicing</v>
       </c>
       <c r="B37" t="str">
-        <v>Crumpled Dog</v>
+        <v>29 Aug 2011</v>
       </c>
       <c r="C37" t="str">
-        <v>Front End Web Developer - jQuery, HTML5, CSS3</v>
+        <v>SEO Manager</v>
       </c>
       <c r="D37" t="str">
         <v>London</v>
       </c>
       <c r="E37" t="str">
-        <v>£25,000 - £35,000 per annum, negotiable</v>
+        <v/>
       </c>
       <c r="F37" t="str">
-        <v>Reed</v>
+        <v>Corporate website</v>
       </c>
       <c r="G37" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H37" t="str">
-        <v/>
+        <v>ST ALBANS</v>
       </c>
       <c r="I37" t="str">
-        <v/>
+        <v>01727 823797</v>
       </c>
       <c r="J37" t="str">
-        <v>Scott Leaver</v>
+        <v/>
       </c>
       <c r="K37" t="str">
-        <v>scott@crumpled-dog.com</v>
-      </c>
-      <c r="L37" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>09 Aug 2012</v>
-      </c>
-      <c r="B38" t="str">
-        <v>Cst Uk Ltd</v>
-      </c>
-      <c r="C38" t="str">
-        <v>Application Engineer</v>
-      </c>
-      <c r="D38" t="str">
-        <v>Nottingham</v>
-      </c>
-      <c r="E38" t="str">
-        <v>Competitive salary</v>
-      </c>
-      <c r="F38" t="str">
-        <v>Reed</v>
-      </c>
-      <c r="G38" t="str">
-        <v>Click here to view Job Advert</v>
-      </c>
-      <c r="H38" t="str">
-        <v>Nottingham, Nottinghamshire</v>
-      </c>
-      <c r="I38" t="str">
-        <v/>
-      </c>
-      <c r="J38" t="str">
-        <v>Mohan Jayawardene</v>
-      </c>
-      <c r="K38" t="str">
-        <v>Mohan.Jayawardene@cst.com</v>
-      </c>
-      <c r="L38" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>17 Aug 2012</v>
-      </c>
-      <c r="B39" t="str">
-        <v>Ctrack Ltd</v>
-      </c>
-      <c r="C39" t="str">
-        <v>Software Developer</v>
-      </c>
-      <c r="D39" t="str">
-        <v>Leeds</v>
-      </c>
-      <c r="E39" t="str">
-        <v/>
-      </c>
-      <c r="F39" t="str">
-        <v>Corporate website</v>
-      </c>
-      <c r="G39" t="str">
-        <v>Click here to view Job Advert</v>
-      </c>
-      <c r="H39" t="str">
-        <v>Harrow, Middlesex</v>
-      </c>
-      <c r="I39" t="str">
-        <v>02085-152900</v>
-      </c>
-      <c r="J39" t="str">
-        <v>Emma Rooke</v>
-      </c>
-      <c r="K39" t="str">
-        <v>emma.rooke@ctrack.co.uk</v>
-      </c>
-      <c r="L39" t="str">
-        <v>hr@ctrack.co.uk</v>
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L39"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K37"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/out.xlsx
+++ b/out.xlsx
@@ -383,96 +383,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:L112"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Casewise Ltd</v>
+        <v>13 Aug 2012</v>
       </c>
       <c r="B1" t="str">
-        <v>02 Sep 2011</v>
+        <v>Channel Advisor</v>
       </c>
       <c r="C1" t="str">
-        <v>Project Manager and Business Analyst</v>
+        <v>Software Engineer</v>
       </c>
       <c r="D1" t="str">
-        <v>Watford</v>
+        <v>United Kingdom</v>
       </c>
       <c r="E1" t="str">
-        <v/>
+        <v>Negotiable</v>
       </c>
       <c r="F1" t="str">
-        <v>Corporate website</v>
+        <v>IrishJobs</v>
       </c>
       <c r="G1" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H1" t="str">
-        <v>WATFORD</v>
+        <v/>
       </c>
       <c r="I1" t="str">
-        <v>01923 830300</v>
+        <v/>
       </c>
       <c r="J1" t="str">
-        <v>David Black</v>
+        <v>Padraig Myers</v>
       </c>
       <c r="K1" t="str">
-        <v>David.Black@casewise.com</v>
+        <v>Padraig.Myers@channeladvisor.com</v>
+      </c>
+      <c r="L1" t="str">
+        <v/>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Casino Tours Abroad</v>
+        <v>08 Aug 2012</v>
       </c>
       <c r="B2" t="str">
-        <v>02 Sep 2011</v>
+        <v>Chatterbox Ltd</v>
       </c>
       <c r="C2" t="str">
-        <v>Software Developer</v>
+        <v>Python &amp; Django Developer; Small team at huge scale</v>
       </c>
       <c r="D2" t="str">
-        <v>Newton</v>
+        <v>London</v>
       </c>
       <c r="E2" t="str">
-        <v/>
+        <v>Salary, Stock Options, Shiny Laptop</v>
       </c>
       <c r="F2" t="str">
-        <v>Corporate website</v>
+        <v>LinkedIn</v>
       </c>
       <c r="G2" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H2" t="str">
-        <v>WEMBLEY</v>
+        <v>Caterham, Surrey</v>
       </c>
       <c r="I2" t="str">
-        <v>020 87951182</v>
+        <v>01883-334792</v>
       </c>
       <c r="J2" t="str">
-        <v>Alan Hughes</v>
+        <v>Dr Stuart Battersby</v>
       </c>
       <c r="K2" t="str">
-        <v>alan@casinota.co.uk</v>
+        <v>stuart.battersby@chatterbox.co</v>
+      </c>
+      <c r="L2" t="str">
+        <v>jobs@chatterbox.co</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Chaos Design Ltd</v>
+        <v>09 Aug 2012</v>
       </c>
       <c r="B3" t="str">
-        <v>31 Aug 2011</v>
+        <v>Cheeky Monkey</v>
       </c>
       <c r="C3" t="str">
-        <v>Web Designer</v>
+        <v>Business Analyst</v>
       </c>
       <c r="D3" t="str">
-        <v>High Street</v>
+        <v>Manchester</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>35,000</v>
       </c>
       <c r="F3" t="str">
         <v>LinkedIn</v>
@@ -481,695 +487,755 @@
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H3" t="str">
-        <v>GUILDFORD</v>
+        <v>Bridlington, North Humberside</v>
       </c>
       <c r="I3" t="str">
-        <v>01483 557800</v>
+        <v/>
       </c>
       <c r="J3" t="str">
-        <v>Peter Campbell</v>
+        <v>Nina Dar</v>
       </c>
       <c r="K3" t="str">
-        <v>peter.c@chaosdesign.com</v>
+        <v>ninadar@cheeky-monkey.co</v>
+      </c>
+      <c r="L3" t="str">
+        <v>hello@cheeky-monkey.co</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Civica Systems Ltd</v>
+        <v>03 Aug 2012</v>
       </c>
       <c r="B4" t="str">
-        <v>01 Sep 2011</v>
+        <v>Chisholm Hunter Holdings Ltd</v>
       </c>
       <c r="C4" t="str">
-        <v>Net Developer</v>
+        <v>Graphic Designer</v>
       </c>
       <c r="D4" t="str">
-        <v>Altrincham</v>
+        <v>Glasgow</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>From £16,000 to £18,000 per annum Competitive Benefits Package</v>
       </c>
       <c r="F4" t="str">
-        <v>Corporate website</v>
+        <v>TotalJobs</v>
       </c>
       <c r="G4" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H4" t="str">
-        <v>ROTHERHAM</v>
+        <v>Glasgow, Lanarkshire</v>
       </c>
       <c r="I4" t="str">
-        <v>01709 787787</v>
+        <v>01412045814</v>
       </c>
       <c r="J4" t="str">
-        <v>Adam Knight</v>
+        <v>Phil McBride</v>
       </c>
       <c r="K4" t="str">
-        <v>aknight@civica.co.uk</v>
+        <v xml:space="preserve">hr@chisholmhunter.co.uk. </v>
+      </c>
+      <c r="L4" t="str">
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Coda Sci Sys</v>
+        <v>17 Aug 2012</v>
       </c>
       <c r="B5" t="str">
-        <v>01 Sep 2011</v>
+        <v>ChristianSteven Software Ltd</v>
       </c>
       <c r="C5" t="str">
-        <v>Spacecraft On Board Software Engineer SSL HRR RTR</v>
+        <v>Business Analyst</v>
       </c>
       <c r="D5" t="str">
-        <v>Bristol</v>
+        <v>Chalgrove</v>
       </c>
       <c r="E5" t="str">
-        <v/>
+        <v>£34,000 - £40,000 per annum</v>
       </c>
       <c r="F5" t="str">
-        <v>Corporate website</v>
+        <v>Reed</v>
       </c>
       <c r="G5" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H5" t="str">
-        <v>CHIPPENHAM</v>
+        <v/>
       </c>
       <c r="I5" t="str">
-        <v>01249 466466</v>
+        <v/>
       </c>
       <c r="J5" t="str">
-        <v>Peter Murden</v>
+        <v>Steve Amani</v>
       </c>
       <c r="K5" t="str">
+        <v>steven@christiansteven.com</v>
+      </c>
+      <c r="L5" t="str">
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Code Computer Love Ltd</v>
+        <v>09 Aug 2012</v>
       </c>
       <c r="B6" t="str">
-        <v>01 Sep 2011</v>
+        <v>Churchill Retirement Living Ltd</v>
       </c>
       <c r="C6" t="str">
-        <v>Web Developer</v>
+        <v>Technical Managers</v>
       </c>
       <c r="D6" t="str">
-        <v>Manchester</v>
+        <v>Byfleet</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>None Specified</v>
       </c>
       <c r="F6" t="str">
-        <v>Corporate website</v>
+        <v>Building4Jobs</v>
       </c>
       <c r="G6" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H6" t="str">
-        <v>MANCHESTER</v>
+        <v>Ringwood, Hampshire</v>
       </c>
       <c r="I6" t="str">
-        <v>0161 2762080</v>
+        <v>01425-462100</v>
       </c>
       <c r="J6" t="str">
-        <v>Kirsty Hunt</v>
+        <v>Nina Nixon</v>
       </c>
       <c r="K6" t="str">
-        <v>kirsty.hunt@codecomputerlove.com</v>
+        <v>Nina.Nixon@churchillretirement.co.uk</v>
+      </c>
+      <c r="L6" t="str">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Coexis Software Ltd</v>
+        <v>17 Aug 2012</v>
       </c>
       <c r="B7" t="str">
-        <v>01 Sep 2011</v>
+        <v>Churchwood Finance</v>
       </c>
       <c r="C7" t="str">
-        <v>Business Analyst</v>
+        <v>Software Developer</v>
       </c>
       <c r="D7" t="str">
-        <v>United Kingdom</v>
+        <v>Stockport</v>
       </c>
       <c r="E7" t="str">
-        <v/>
+        <v>Up to £30k</v>
       </c>
       <c r="F7" t="str">
-        <v>Corporate website</v>
+        <v>JobServe</v>
       </c>
       <c r="G7" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H7" t="str">
-        <v>RICKMANSWORTH</v>
+        <v/>
       </c>
       <c r="I7" t="str">
-        <v>01923 720477</v>
+        <v/>
       </c>
       <c r="J7" t="str">
-        <v>Robert DeDominicis</v>
+        <v>Andrew Cummings</v>
       </c>
       <c r="K7" t="str">
-        <v>rob.dedominicis@gbst.com</v>
+        <v>andrew-cummings@churchwoodfinancial.co.uk</v>
+      </c>
+      <c r="L7" t="str">
+        <v>careers@churchwoodfinancial.co.uk</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Contemporary plc</v>
+        <v>17 Aug 2012</v>
       </c>
       <c r="B8" t="str">
-        <v>02 Sep 2011</v>
+        <v>Churchwood Finance</v>
       </c>
       <c r="C8" t="str">
-        <v>SAP BusinessObjects Business Intelligence Consultant</v>
+        <v>Software Developer - MS SQL, Visual Basic 6, C# .net</v>
       </c>
       <c r="D8" t="str">
-        <v>Midlands</v>
+        <v>Stockport</v>
       </c>
       <c r="E8" t="str">
-        <v>�30,000 to �55,000 + car allowance + bonus</v>
+        <v>275 Per Day</v>
       </c>
       <c r="F8" t="str">
-        <v>Corporate website</v>
+        <v>JobServe</v>
       </c>
       <c r="G8" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H8" t="str">
-        <v>ASCOT</v>
+        <v/>
       </c>
       <c r="I8" t="str">
-        <v>01344 297600</v>
+        <v/>
       </c>
       <c r="J8" t="str">
-        <v/>
+        <v>Andrew Cummings</v>
       </c>
       <c r="K8" t="str">
-        <v/>
+        <v>andrew-cummings@churchwoodfinancial.co.uk</v>
+      </c>
+      <c r="L8" t="str">
+        <v>careers@churchwoodfinancial.co.uk</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Continental Data Graphics Ltd</v>
+        <v>17 Aug 2012</v>
       </c>
       <c r="B9" t="str">
-        <v>02 Sep 2011</v>
+        <v>Citypoint Trading Limited</v>
       </c>
       <c r="C9" t="str">
-        <v>Software Developer IV</v>
+        <v>IT Manager</v>
       </c>
       <c r="D9" t="str">
         <v>City of London</v>
       </c>
       <c r="E9" t="str">
-        <v/>
+        <v>Salary: £45,000 – £65,000 per annum</v>
       </c>
       <c r="F9" t="str">
-        <v>Corporate website</v>
+        <v>LinkedIn</v>
       </c>
       <c r="G9" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H9" t="str">
-        <v>KNARESBOROUGH</v>
+        <v/>
       </c>
       <c r="I9" t="str">
-        <v>01423 867867</v>
+        <v/>
       </c>
       <c r="J9" t="str">
-        <v>Jack M. Patterson</v>
+        <v>Sandra Frampton</v>
       </c>
       <c r="K9" t="str">
-        <v>mpatterson@cdgnow.com</v>
+        <v>sandra.frampton@citypointtrading.com</v>
+      </c>
+      <c r="L9" t="str">
+        <v xml:space="preserve">jobs@CitypointTrading.com </v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Contract Interiors International</v>
+        <v>17 Aug 2012</v>
       </c>
       <c r="B10" t="str">
-        <v>02 Sep 2011</v>
+        <v>Claires Accessories Uk Ltd</v>
       </c>
       <c r="C10" t="str">
-        <v>Junior Coldfusion Developer</v>
+        <v>Senior Systems Developer - MS SQL Server 2000/SQL Server 2005/SQL Server 2008</v>
       </c>
       <c r="D10" t="str">
-        <v>Elstree</v>
+        <v>Birmingham</v>
       </c>
       <c r="E10" t="str">
-        <v>£23000 - £26000 per annum</v>
+        <v/>
       </c>
       <c r="F10" t="str">
-        <v>Corporate website</v>
+        <v>JobServe</v>
       </c>
       <c r="G10" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H10" t="str">
-        <v>BARNET</v>
+        <v>Birmingham, West Midlands</v>
       </c>
       <c r="I10" t="str">
-        <v>020 84403828</v>
+        <v>0121-682-8000</v>
       </c>
       <c r="J10" t="str">
-        <v>Hayley Roy</v>
+        <v>Louise Askey</v>
       </c>
       <c r="K10" t="str">
-        <v>hroy@contractinteriors.co.uk</v>
+        <v>louise.zwerner@claires.co.uk</v>
+      </c>
+      <c r="L10" t="str">
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Copa Ltd</v>
+        <v>08 Aug 2012</v>
       </c>
       <c r="B11" t="str">
-        <v>02 Sep 2011</v>
+        <v>Click Consultancy Ltd</v>
       </c>
       <c r="C11" t="str">
-        <v>Control Software Engineer</v>
+        <v>Senior Systems Developer - MS SQL Server 2000/SQL Server 2005/SQL Server 2008</v>
       </c>
       <c r="D11" t="str">
-        <v>Wolverhampton</v>
+        <v>Merseyside</v>
       </c>
       <c r="E11" t="str">
-        <v/>
+        <v>Upto £20,000 per annum (depending on experience)</v>
       </c>
       <c r="F11" t="str">
-        <v>Corporate website</v>
+        <v>TotalJobs</v>
       </c>
       <c r="G11" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H11" t="str">
-        <v>TONBRIDGE</v>
+        <v>Manchester</v>
       </c>
       <c r="I11" t="str">
-        <v>01622 833914</v>
+        <v/>
       </c>
       <c r="J11" t="str">
-        <v/>
+        <v>Gail Jones</v>
       </c>
       <c r="K11" t="str">
-        <v/>
+        <v>gail@clickconsultancy.com</v>
+      </c>
+      <c r="L11" t="str">
+        <v>info@clickconsultancy.com</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Cospeed Limited</v>
+        <v>14 Aug 2012</v>
       </c>
       <c r="B12" t="str">
-        <v>02 Sep 2011</v>
+        <v>Clicksoftware Europe Ltd</v>
       </c>
       <c r="C12" t="str">
-        <v>ASP.NET/C#/SQL home developer in UK for Telecommunication company</v>
+        <v>Solution Consultant EU</v>
       </c>
       <c r="D12" t="str">
-        <v>United Kingdom</v>
+        <v>Slough</v>
       </c>
       <c r="E12" t="str">
-        <v>Negotiable Depending On Experience</v>
+        <v>Dependant On Experience</v>
       </c>
       <c r="F12" t="str">
-        <v>JobServe</v>
+        <v>Monster</v>
       </c>
       <c r="G12" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H12" t="str">
-        <v>BOREHAMWOOD</v>
+        <v>London</v>
       </c>
       <c r="I12" t="str">
-        <v/>
+        <v>01628607000</v>
       </c>
       <c r="J12" t="str">
-        <v>John Strudwick</v>
+        <v>Hagit Efrati</v>
       </c>
       <c r="K12" t="str">
+        <v>hagit.efrati@clicksoftware.com</v>
+      </c>
+      <c r="L12" t="str">
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Cravenplan Computers Ltd</v>
+        <v>17 Aug 2012</v>
       </c>
       <c r="B13" t="str">
-        <v>01 Sep 2011</v>
+        <v>ClickThrough Marketing</v>
       </c>
       <c r="C13" t="str">
-        <v>Web Development Programmer Cool ICE Mapper</v>
+        <v>Web Developer</v>
       </c>
       <c r="D13" t="str">
-        <v>United Kingdom</v>
+        <v>Lichfield</v>
       </c>
       <c r="E13" t="str">
-        <v>�40 per hour</v>
+        <v>£15000 to £23000 Per Annum</v>
       </c>
       <c r="F13" t="str">
-        <v>Corporate website</v>
+        <v>jobcentreplus</v>
       </c>
       <c r="G13" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H13" t="str">
-        <v>SALISBURY</v>
+        <v/>
       </c>
       <c r="I13" t="str">
-        <v>01747 858000</v>
+        <v/>
       </c>
       <c r="J13" t="str">
-        <v>Chris Stanbury</v>
+        <v>Michelle Crane</v>
       </c>
       <c r="K13" t="str">
-        <v>chris@cravenplan.co.uk</v>
+        <v>mccrane@clickthrough-marketing.com</v>
+      </c>
+      <c r="L13" t="str">
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Cravenplan Computers Ltd</v>
+        <v>07 Aug 2012</v>
       </c>
       <c r="B14" t="str">
-        <v>01 Sep 2011</v>
+        <v>Clifton Asset Management Plc</v>
       </c>
       <c r="C14" t="str">
-        <v>Web Designer</v>
+        <v>CRM Developer / CRM Specialist / Consultant - MS Dynamics</v>
       </c>
       <c r="D14" t="str">
-        <v>Salisbury</v>
+        <v>Ham</v>
       </c>
       <c r="E14" t="str">
-        <v>�20,000 - �30,000 + benefits</v>
+        <v>Salary range £30000-£35000</v>
       </c>
       <c r="F14" t="str">
-        <v>Corporate website</v>
+        <v>LinkedIn</v>
       </c>
       <c r="G14" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H14" t="str">
-        <v>SALISBURY</v>
+        <v>Bristol, Avon</v>
       </c>
       <c r="I14" t="str">
-        <v>01747 858000</v>
+        <v/>
       </c>
       <c r="J14" t="str">
-        <v>Chris Stanbury</v>
+        <v>Adam Tavener</v>
       </c>
       <c r="K14" t="str">
-        <v>chris@cravenplan.co.uk</v>
+        <v>adam.tavener@cliftonasset.co.uk</v>
+      </c>
+      <c r="L14" t="str">
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Cravenplan Computers Ltd</v>
+        <v>02 Aug 2012</v>
       </c>
       <c r="B15" t="str">
-        <v>01 Sep 2011</v>
+        <v>Cole Enterprise Ltd</v>
       </c>
       <c r="C15" t="str">
-        <v>SEO</v>
+        <v>C++ Software Developer - Surrey</v>
       </c>
       <c r="D15" t="str">
-        <v>Salisbury</v>
+        <v>Dorking</v>
       </c>
       <c r="E15" t="str">
-        <v>�15,000 - �45,000</v>
+        <v>Monthly Paid Salary</v>
       </c>
       <c r="F15" t="str">
-        <v>Corporate website</v>
+        <v>TechnoJobs</v>
       </c>
       <c r="G15" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H15" t="str">
-        <v>SALISBURY</v>
+        <v>Dorking, Surrey</v>
       </c>
       <c r="I15" t="str">
-        <v>01747 858000</v>
+        <v/>
       </c>
       <c r="J15" t="str">
-        <v>Chris Stanbury</v>
+        <v>Andy Cole</v>
       </c>
       <c r="K15" t="str">
-        <v>chris@cravenplan.co.uk</v>
+        <v>andy@sports-coach.com</v>
+      </c>
+      <c r="L15" t="str">
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Craneware plc</v>
+        <v>03 Aug 2012</v>
       </c>
       <c r="B16" t="str">
-        <v>01 Sep 2011</v>
+        <v>Cole Enterprise Ltd</v>
       </c>
       <c r="C16" t="str">
-        <v>Developer</v>
+        <v>C++ Software Developer</v>
       </c>
       <c r="D16" t="str">
-        <v>United Kingdom</v>
+        <v>Dorking</v>
       </c>
       <c r="E16" t="str">
-        <v/>
+        <v>£30,000 - £36,000 per annum</v>
       </c>
       <c r="F16" t="str">
-        <v>Corporate website</v>
+        <v>jobcentreplus</v>
       </c>
       <c r="G16" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H16" t="str">
-        <v>LIVINGSTON</v>
+        <v>Dorking, Surrey</v>
       </c>
       <c r="I16" t="str">
-        <v>01506 407666</v>
+        <v/>
       </c>
       <c r="J16" t="str">
-        <v>Derek Peterson</v>
+        <v>Andy Cole</v>
       </c>
       <c r="K16" t="str">
-        <v>d.peterson@craneware.com</v>
+        <v>andy@sports-coach.com</v>
+      </c>
+      <c r="L16" t="str">
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Craegmoor Ltd</v>
+        <v>16 Aug 2012</v>
       </c>
       <c r="B17" t="str">
-        <v>02 Sep 2011</v>
+        <v>Collis Great Britiain Limited</v>
       </c>
       <c r="C17" t="str">
-        <v>Digital Marketing Specialist</v>
+        <v>Technical Consultant, Software Engineer - Java, Mobile, SmartCard, NFC</v>
       </c>
       <c r="D17" t="str">
-        <v>Worcester</v>
+        <v>Edinburgh</v>
       </c>
       <c r="E17" t="str">
-        <v>�30,000 to �35,000 per annum</v>
+        <v/>
       </c>
       <c r="F17" t="str">
-        <v>Corporate website</v>
+        <v>CwJobs</v>
       </c>
       <c r="G17" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H17" t="str">
-        <v>BRISTOL</v>
+        <v/>
       </c>
       <c r="I17" t="str">
-        <v>0117 9593427</v>
+        <v/>
       </c>
       <c r="J17" t="str">
-        <v xml:space="preserve">Caroline Thompson </v>
+        <v>Rosalien Welle</v>
       </c>
       <c r="K17" t="str">
-        <v>caroline.thompson@craegmoor.co.uk</v>
+        <v>jobs@collis.nl</v>
+      </c>
+      <c r="L17" t="str">
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Crossover Technologies</v>
+        <v>07 Aug 2012</v>
       </c>
       <c r="B18" t="str">
-        <v>01 Sep 2011</v>
+        <v>Colourbox Ltd</v>
       </c>
       <c r="C18" t="str">
-        <v>VB and ASP . Net Developer</v>
+        <v>GRAPHIC DESIGNER (CREATIVE SPARK)</v>
       </c>
       <c r="D18" t="str">
-        <v>Bristol</v>
+        <v>Swansea</v>
       </c>
       <c r="E18" t="str">
-        <v>Based on experience</v>
+        <v>£14000.00 TO £18000.00 PER ANNUM</v>
       </c>
       <c r="F18" t="str">
-        <v>PurelyIT</v>
+        <v>jobcentreplus</v>
       </c>
       <c r="G18" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H18" t="str">
-        <v>BRISTOL</v>
+        <v>Leeds, West Yorkshire</v>
       </c>
       <c r="I18" t="str">
-        <v>08709 006410</v>
+        <v/>
       </c>
       <c r="J18" t="str">
-        <v>Philip Barnard</v>
+        <v>Daryl Edgecombe</v>
       </c>
       <c r="K18" t="str">
-        <v>phil.barnard@crossover.co.uk</v>
+        <v>daryl@colourbox.info</v>
+      </c>
+      <c r="L18" t="str">
+        <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Cummins Turbo Technologies</v>
+        <v>07 Aug 2012</v>
       </c>
       <c r="B19" t="str">
-        <v>01 Sep 2011</v>
+        <v>Conception Marketing Ltd</v>
       </c>
       <c r="C19" t="str">
-        <v>Worldwide Test Technology Manager</v>
+        <v>Adobe Illustrator</v>
       </c>
       <c r="D19" t="str">
-        <v>Huddersfield</v>
+        <v>Send</v>
       </c>
       <c r="E19" t="str">
-        <v>£57,500 + Benefits (Pension, Fully Expensed Car or Car Option and Healthcare)</v>
+        <v/>
       </c>
       <c r="F19" t="str">
-        <v>TopEngineeringJobs</v>
+        <v>Corporate website</v>
       </c>
       <c r="G19" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H19" t="str">
-        <v>HUDDERSFIELD</v>
+        <v>Liverpool, Merseyside</v>
       </c>
       <c r="I19" t="str">
-        <v>01484 538496</v>
+        <v>0151-724-3681</v>
       </c>
       <c r="J19" t="str">
-        <v>James Moorhouse</v>
+        <v>Stephen Woolman</v>
       </c>
       <c r="K19" t="str">
-        <v>james.moorhouse@cummins.com</v>
+        <v>stephen@theconception.co.uk</v>
+      </c>
+      <c r="L19" t="str">
+        <v>recruitment@theconception.co.uk</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Dazed Group</v>
+        <v>15 Aug 2012</v>
       </c>
       <c r="B20" t="str">
-        <v>01 Sep 2011</v>
+        <v>Concrete Canvas Ltd</v>
       </c>
       <c r="C20" t="str">
-        <v>Digital Director</v>
+        <v>Graduate Graphic Designer</v>
       </c>
       <c r="D20" t="str">
-        <v>United Kingdom</v>
+        <v>Cardiff</v>
       </c>
       <c r="E20" t="str">
-        <v>Competitive</v>
+        <v>£18,000.00 - £23,000.00 per year Annual Bonus</v>
       </c>
       <c r="F20" t="str">
-        <v>NMA</v>
+        <v>Monster</v>
       </c>
       <c r="G20" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H20" t="str">
-        <v>LONDON</v>
+        <v>Pontypridd, Mid Glamorgan</v>
       </c>
       <c r="I20" t="str">
         <v/>
       </c>
       <c r="J20" t="str">
-        <v>Alistair Allan</v>
+        <v>Peter Brewin</v>
       </c>
       <c r="K20" t="str">
-        <v>alistair@dazedgroup.com</v>
+        <v>peter.brewin@concretecanvass.co.uk</v>
+      </c>
+      <c r="L20" t="str">
+        <v>jobs@concretecanvas.co.uk</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Definitive Applications</v>
+        <v>17 Aug 2012</v>
       </c>
       <c r="B21" t="str">
-        <v>01 Sep 2011</v>
+        <v>Configit A/S</v>
       </c>
       <c r="C21" t="str">
-        <v>NET Software Developer</v>
+        <v>Software Testers</v>
       </c>
       <c r="D21" t="str">
-        <v>United Kingdom</v>
+        <v>Warwick</v>
       </c>
       <c r="E21" t="str">
-        <v>�23k per annum</v>
+        <v>Upto £40,000 per annum</v>
       </c>
       <c r="F21" t="str">
-        <v>Corporate website</v>
+        <v>CwJobs</v>
       </c>
       <c r="G21" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H21" t="str">
-        <v>NEWBURY</v>
+        <v/>
       </c>
       <c r="I21" t="str">
-        <v>01635 551777</v>
+        <v/>
       </c>
       <c r="J21" t="str">
-        <v>Salma Bryant</v>
+        <v>Jon Shaw</v>
       </c>
       <c r="K21" t="str">
-        <v>salma.bryant@sorce.co.uk</v>
+        <v>jon.shaw@configit.com</v>
+      </c>
+      <c r="L21" t="str">
+        <v xml:space="preserve"> jobs@configit.com</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Delcam</v>
+        <v>13 Aug 2012</v>
       </c>
       <c r="B22" t="str">
-        <v>02 Sep 2011</v>
+        <v>Consol Uk Ltd</v>
       </c>
       <c r="C22" t="str">
-        <v>Software Engineer</v>
+        <v>Mobile Web Developer</v>
       </c>
       <c r="D22" t="str">
-        <v>Birmingham</v>
+        <v>London</v>
       </c>
       <c r="E22" t="str">
-        <v/>
+        <v>From £40,000 to £45,000 per year</v>
       </c>
       <c r="F22" t="str">
-        <v>Corporate website</v>
+        <v>JobSearch</v>
       </c>
       <c r="G22" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H22" t="str">
-        <v>BIRMINGHAM</v>
+        <v>Hook, Hampshire</v>
       </c>
       <c r="I22" t="str">
-        <v>0121 7665544</v>
+        <v/>
       </c>
       <c r="J22" t="str">
-        <v/>
+        <v>Ryan Adams</v>
       </c>
       <c r="K22" t="str">
+        <v>ryan.adams@consolpartners.com</v>
+      </c>
+      <c r="L22" t="str">
         <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Dna Solutions</v>
+        <v>08 Aug 2012</v>
       </c>
       <c r="B23" t="str">
-        <v>02 Sep 2011</v>
+        <v>Controlled Therapeutics (Scotland) Ltd</v>
       </c>
       <c r="C23" t="str">
-        <v>Post Sales Technical Support Engineers Technical Department</v>
+        <v>QA Specialist Validation</v>
       </c>
       <c r="D23" t="str">
-        <v>Slough</v>
+        <v>Ferring</v>
       </c>
       <c r="E23" t="str">
         <v/>
@@ -1181,511 +1247,3187 @@
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H23" t="str">
-        <v>SLOUGH</v>
+        <v>Lanark, Lanarkshire</v>
       </c>
       <c r="I23" t="str">
-        <v>01753 571186</v>
+        <v>01355-239166</v>
       </c>
       <c r="J23" t="str">
-        <v/>
+        <v>Eleanor Campbell</v>
       </c>
       <c r="K23" t="str">
-        <v/>
+        <v>eleanor.campbell@ferring.com</v>
+      </c>
+      <c r="L23" t="str">
+        <v>CH3-RecruitmentFICSA@ferring.com</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>E2v Technologies Ltd</v>
+        <v>02 Aug 2012</v>
       </c>
       <c r="B24" t="str">
-        <v>02 Sep 2011</v>
+        <v>Cooper MEDC</v>
       </c>
       <c r="C24" t="str">
-        <v>Software Development Engineer</v>
+        <v>Hardware/Firmware Engineer</v>
       </c>
       <c r="D24" t="str">
-        <v>Bulk</v>
+        <v>Pinxton</v>
       </c>
       <c r="E24" t="str">
-        <v/>
+        <v>£26,000.00 - £30,000.00 Annual Salary</v>
       </c>
       <c r="F24" t="str">
-        <v>Corporate website</v>
+        <v>Monster</v>
       </c>
       <c r="G24" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H24" t="str">
-        <v>CHELMSFORD</v>
+        <v/>
       </c>
       <c r="I24" t="str">
-        <v>01245 493493</v>
+        <v/>
       </c>
       <c r="J24" t="str">
-        <v>Daren Carpenter</v>
+        <v>Jo-Ann Haughton</v>
       </c>
       <c r="K24" t="str">
+        <v>jo-ann.haughton@cooperindustries.com</v>
+      </c>
+      <c r="L24" t="str">
         <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Egain Communications Ltd</v>
+        <v>14 Aug 2012</v>
       </c>
       <c r="B25" t="str">
-        <v>02 Sep 2011</v>
+        <v>Core Creative Ltd</v>
       </c>
       <c r="C25" t="str">
-        <v>Web Developer</v>
+        <v>Web Developers for Core Creative</v>
       </c>
       <c r="D25" t="str">
-        <v>Slough</v>
+        <v>Somerset</v>
       </c>
       <c r="E25" t="str">
-        <v/>
+        <v>DOE</v>
       </c>
       <c r="F25" t="str">
-        <v>Corporate website</v>
+        <v>Creativepool</v>
       </c>
       <c r="G25" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H25" t="str">
-        <v>SLOUGH</v>
+        <v>Yeovil, Somerset</v>
       </c>
       <c r="I25" t="str">
-        <v>01753 464646</v>
+        <v/>
       </c>
       <c r="J25" t="str">
-        <v>Jamie Abayan</v>
+        <v>Matt Hellier</v>
       </c>
       <c r="K25" t="str">
-        <v>jabayan@egain.com</v>
+        <v>matt@corecreative.info</v>
+      </c>
+      <c r="L25" t="str">
+        <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Eleco plc</v>
+        <v>09 Aug 2012</v>
       </c>
       <c r="B26" t="str">
-        <v>01 Sep 2011</v>
+        <v>Corelogic Ltd</v>
       </c>
       <c r="C26" t="str">
-        <v>Digital Marketing &amp; Web Administrator</v>
+        <v>Java Developer - London or Edinburgh</v>
       </c>
       <c r="D26" t="str">
         <v>London</v>
       </c>
       <c r="E26" t="str">
-        <v>£25,000 - £28,000 per annum, pro-rata</v>
+        <v>£35,000 to £42,000 per annum + Benefits</v>
       </c>
       <c r="F26" t="str">
-        <v>Reed</v>
+        <v>LinkedIn</v>
       </c>
       <c r="G26" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H26" t="str">
-        <v>WARE</v>
+        <v>London</v>
       </c>
       <c r="I26" t="str">
-        <v>01920 443830</v>
+        <v>020-7354-8000</v>
       </c>
       <c r="J26" t="str">
-        <v>Matthew Turner</v>
+        <v>Peter Stimson</v>
       </c>
       <c r="K26" t="str">
-        <v>matthew.turner@shoremountain.co.uk</v>
+        <v>peter.stimson@corelogic.co.uk</v>
+      </c>
+      <c r="L26" t="str">
+        <v>info@corelogic.co.uk</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Envitia Ltd</v>
+        <v>07 Aug 2012</v>
       </c>
       <c r="B27" t="str">
-        <v>01 Sep 2011</v>
+        <v>Cornerstone Ondemand Ltd</v>
       </c>
       <c r="C27" t="str">
-        <v>Software Engineer</v>
+        <v>Technical Project Manager (Integration Consultant)</v>
       </c>
       <c r="D27" t="str">
-        <v>Horsham</v>
+        <v>London</v>
       </c>
       <c r="E27" t="str">
         <v/>
       </c>
       <c r="F27" t="str">
-        <v>Corporate website</v>
+        <v>LinkedIn</v>
       </c>
       <c r="G27" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H27" t="str">
-        <v>HORSHAM</v>
+        <v>London</v>
       </c>
       <c r="I27" t="str">
-        <v>01403 273173</v>
+        <v/>
       </c>
       <c r="J27" t="str">
-        <v>Nick Jones</v>
+        <v>Mark Goldin</v>
       </c>
       <c r="K27" t="str">
-        <v>nick.jones@tenet.co.uk</v>
+        <v>mark.goldin@cornerstoneondemand.co.uk</v>
+      </c>
+      <c r="L27" t="str">
+        <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Envitia Ltd</v>
+        <v>17 Aug 2012</v>
       </c>
       <c r="B28" t="str">
-        <v>01 Sep 2011</v>
+        <v>Corporate Office Europe</v>
       </c>
       <c r="C28" t="str">
-        <v>Senior Software Engineer</v>
+        <v>Junior Data Analyst</v>
       </c>
       <c r="D28" t="str">
-        <v>Horsham</v>
+        <v>Coventry</v>
       </c>
       <c r="E28" t="str">
-        <v/>
+        <v>Upto £18,000 per annum plus bonus, healthcare, pension &amp; 34 days leave</v>
       </c>
       <c r="F28" t="str">
-        <v>Corporate website</v>
+        <v>TotalJobs</v>
       </c>
       <c r="G28" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H28" t="str">
-        <v>HORSHAM</v>
+        <v>Glasgow, Lanarkshire</v>
       </c>
       <c r="I28" t="str">
-        <v>01403 273173</v>
+        <v>0141-571-3400</v>
       </c>
       <c r="J28" t="str">
-        <v>Nick Jones</v>
+        <v>Emma Parker</v>
       </c>
       <c r="K28" t="str">
-        <v>nick.jones@tenet.co.uk</v>
+        <v>emma.parker@corporateoffice.co.uk</v>
+      </c>
+      <c r="L28" t="str">
+        <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>ESP Systex Ltd.</v>
+        <v>14 Aug 2012</v>
       </c>
       <c r="B29" t="str">
-        <v>02 Sep 2011</v>
+        <v>Corporatec (London) Ltd</v>
       </c>
       <c r="C29" t="str">
-        <v>Network Administrator</v>
+        <v>Desktop Support Analyst</v>
       </c>
       <c r="D29" t="str">
-        <v>Kingston upon Hull</v>
+        <v>London</v>
       </c>
       <c r="E29" t="str">
-        <v>TBA</v>
+        <v>£28,000 - £32,000 per annum</v>
       </c>
       <c r="F29" t="str">
-        <v>Jobsite</v>
+        <v>Reed</v>
       </c>
       <c r="G29" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H29" t="str">
-        <v>HULL</v>
+        <v>Hitchin, Hertfordshire</v>
       </c>
       <c r="I29" t="str">
-        <v>01482 - 384500</v>
+        <v/>
       </c>
       <c r="J29" t="str">
-        <v>Terry Dunn</v>
+        <v>Vas Proud</v>
       </c>
       <c r="K29" t="str">
-        <v>terry@espsystex.co.uk</v>
+        <v>vas@corporatec.co.uk</v>
+      </c>
+      <c r="L29" t="str">
+        <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Expert Systems Ltd</v>
+        <v>15 Aug 2012</v>
       </c>
       <c r="B30" t="str">
-        <v>02 Sep 2011</v>
+        <v>Coverpoint Foodservice Consultants</v>
       </c>
       <c r="C30" t="str">
-        <v>SEO</v>
+        <v>Web &amp; Social Media Coordinator - Foodservice Consultancy, Twyford, Berkshire</v>
       </c>
       <c r="D30" t="str">
-        <v>West Yorkshire</v>
+        <v>Twyford</v>
       </c>
       <c r="E30" t="str">
-        <v/>
+        <v>Starting Salary from £18,000</v>
       </c>
       <c r="F30" t="str">
-        <v>Corporate website</v>
+        <v>BigHospitality</v>
       </c>
       <c r="G30" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H30" t="str">
-        <v>DEWSBURY</v>
+        <v/>
       </c>
       <c r="I30" t="str">
-        <v>01924 488612</v>
+        <v/>
       </c>
       <c r="J30" t="str">
-        <v>Gareth James</v>
+        <v>Jonathan Doughty</v>
       </c>
       <c r="K30" t="str">
-        <v>gareth.james@eitex.co.uk</v>
+        <v>jdoughty@coverpoint.co.uk</v>
+      </c>
+      <c r="L30" t="str">
+        <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Ezcctv.Com</v>
+        <v>09 Aug 2012</v>
       </c>
       <c r="B31" t="str">
-        <v>01 Sep 2011</v>
+        <v>Createthe Group Limited</v>
       </c>
       <c r="C31" t="str">
-        <v>Technical Support Specialist</v>
+        <v>Digital Account Manager</v>
       </c>
       <c r="D31" t="str">
-        <v>United Kingdom</v>
+        <v>London</v>
       </c>
       <c r="E31" t="str">
-        <v/>
+        <v>Competitive rates of pay apply</v>
       </c>
       <c r="F31" t="str">
-        <v>Corporate website</v>
+        <v>jobcentreplus</v>
       </c>
       <c r="G31" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H31" t="str">
-        <v>LETCHWORTH GARDEN CITY</v>
+        <v/>
       </c>
       <c r="I31" t="str">
-        <v>01462 708820</v>
+        <v/>
       </c>
       <c r="J31" t="str">
-        <v>Joss Cohen</v>
+        <v>Rebecca Daly</v>
       </c>
       <c r="K31" t="str">
-        <v>joss@ezcctv.com</v>
+        <v>rdaly@createthegroup.com</v>
+      </c>
+      <c r="L31" t="str">
+        <v>londonjobs@createthegroup.com</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Fathom Business Solutions</v>
+        <v>17 Aug 2012</v>
       </c>
       <c r="B32" t="str">
-        <v>02 Sep 2011</v>
+        <v>Creative Lynx</v>
       </c>
       <c r="C32" t="str">
-        <v>Applications Developer</v>
+        <v>Middle-Weight Developer</v>
       </c>
       <c r="D32" t="str">
-        <v>Fathom</v>
+        <v>Manchester</v>
       </c>
       <c r="E32" t="str">
-        <v>£28000 - £35000 p.a.</v>
+        <v>Salary negotiable</v>
       </c>
       <c r="F32" t="str">
-        <v>Corporate website</v>
+        <v>Reed</v>
       </c>
       <c r="G32" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H32" t="str">
-        <v>PURLEY</v>
+        <v>Manchester</v>
       </c>
       <c r="I32" t="str">
-        <v>08451 235810</v>
+        <v/>
       </c>
       <c r="J32" t="str">
-        <v>Matt Gates</v>
+        <v>Lisa Jones</v>
       </c>
       <c r="K32" t="str">
-        <v>mg@fathomgroup.co.uk</v>
+        <v>lisa.jones@creativelynx.co.uk</v>
+      </c>
+      <c r="L32" t="str">
+        <v/>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Fernlea</v>
+        <v>17 Aug 2012</v>
       </c>
       <c r="B33" t="str">
-        <v>01 Sep 2011</v>
+        <v>Creative Lynx</v>
       </c>
       <c r="C33" t="str">
-        <v>Digital Marketing Specialist</v>
+        <v>Digital Project Manager</v>
       </c>
       <c r="D33" t="str">
-        <v>Worcester</v>
+        <v>Manchester</v>
       </c>
       <c r="E33" t="str">
-        <v>�30,000 to �35,000 per annum</v>
+        <v>£10,000 - £50,000 per annum</v>
       </c>
       <c r="F33" t="str">
-        <v>Corporate website</v>
+        <v>Reed</v>
       </c>
       <c r="G33" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H33" t="str">
-        <v>BROCKENHURST</v>
+        <v>Manchester</v>
       </c>
       <c r="I33" t="str">
-        <v>01590 623237</v>
+        <v/>
       </c>
       <c r="J33" t="str">
-        <v xml:space="preserve">Caroline Thompson </v>
+        <v>Lisa Jones</v>
       </c>
       <c r="K33" t="str">
-        <v>caroline.thompson@craegmoor.co.uk</v>
+        <v>lisa.jones@creativelynx.co.uk</v>
+      </c>
+      <c r="L33" t="str">
+        <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Fidessa plc</v>
+        <v>09 Aug 2012</v>
       </c>
       <c r="B34" t="str">
-        <v>01 Sep 2011</v>
+        <v>Creative Print</v>
       </c>
       <c r="C34" t="str">
-        <v>Java Web Developer F</v>
+        <v>Graphic Designer</v>
       </c>
       <c r="D34" t="str">
-        <v>Woking</v>
+        <v>Birmingham</v>
       </c>
       <c r="E34" t="str">
-        <v/>
+        <v>£18,000 - £25,000 per annum</v>
       </c>
       <c r="F34" t="str">
-        <v>Corporate website</v>
+        <v>Reed</v>
       </c>
       <c r="G34" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H34" t="str">
-        <v>WOKING</v>
+        <v>Liverpool, Merseyside</v>
       </c>
       <c r="I34" t="str">
-        <v>01483 206300</v>
+        <v/>
       </c>
       <c r="J34" t="str">
-        <v>Angie Walker</v>
+        <v>Lara Holmes</v>
       </c>
       <c r="K34" t="str">
-        <v>angie.walker@fidessa.com</v>
+        <v>lara.holmes@printcreative.ltd.uk</v>
+      </c>
+      <c r="L34" t="str">
+        <v>recruitment@printcreative.ltd.uk</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Fidessa plc</v>
+        <v>08 Aug 2012</v>
       </c>
       <c r="B35" t="str">
-        <v>01 Sep 2011</v>
+        <v>Crimson Cat</v>
       </c>
       <c r="C35" t="str">
-        <v>SAP ABAP Developer RBF</v>
+        <v>Graphic Designer</v>
       </c>
       <c r="D35" t="str">
-        <v>Woking</v>
+        <v>Nottingham</v>
       </c>
       <c r="E35" t="str">
-        <v/>
+        <v>Unspecified</v>
       </c>
       <c r="F35" t="str">
-        <v>Corporate website</v>
+        <v>TotalJobs</v>
       </c>
       <c r="G35" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H35" t="str">
-        <v>WOKING</v>
+        <v/>
       </c>
       <c r="I35" t="str">
-        <v>01483 206300</v>
+        <v/>
       </c>
       <c r="J35" t="str">
-        <v>Angie Walker</v>
+        <v>Angela Neale</v>
       </c>
       <c r="K35" t="str">
-        <v>angie.walker@fidessa.com</v>
+        <v>angela.neale@crimsoncat.co.uk</v>
+      </c>
+      <c r="L35" t="str">
+        <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>G Jan Computers Ltd</v>
+        <v>17 Aug 2012</v>
       </c>
       <c r="B36" t="str">
-        <v>02 Sep 2011</v>
+        <v>Crown Packaging Uk Plc</v>
       </c>
       <c r="C36" t="str">
-        <v>Software Engineer</v>
+        <v>Web Application Developer</v>
       </c>
       <c r="D36" t="str">
-        <v>Redbourn</v>
+        <v>Oxfordshire</v>
       </c>
       <c r="E36" t="str">
-        <v/>
+        <v>Upto £35,000 per annum dependent on experience+benefits</v>
       </c>
       <c r="F36" t="str">
-        <v>Corporate website</v>
+        <v>TotalJobs</v>
       </c>
       <c r="G36" t="str">
         <v>Click here to view Job Advert</v>
       </c>
       <c r="H36" t="str">
-        <v>HEMEL HEMPSTEAD</v>
+        <v>Worcester, Worcestershire</v>
       </c>
       <c r="I36" t="str">
-        <v>01442 241396</v>
+        <v>01905-762000</v>
       </c>
       <c r="J36" t="str">
-        <v>Gita Patel</v>
+        <v/>
       </c>
       <c r="K36" t="str">
+        <v/>
+      </c>
+      <c r="L36" t="str">
         <v/>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>G M W Mobile Servicing</v>
+        <v>16 Aug 2012</v>
       </c>
       <c r="B37" t="str">
-        <v>29 Aug 2011</v>
+        <v>Crumpled Dog</v>
       </c>
       <c r="C37" t="str">
-        <v>SEO Manager</v>
+        <v>Front End Web Developer - jQuery, HTML5, CSS3</v>
       </c>
       <c r="D37" t="str">
         <v>London</v>
       </c>
       <c r="E37" t="str">
-        <v/>
+        <v>£25,000 - £35,000 per annum, negotiable</v>
       </c>
       <c r="F37" t="str">
+        <v>Reed</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H37" t="str">
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <v>Scott Leaver</v>
+      </c>
+      <c r="K37" t="str">
+        <v>scott@crumpled-dog.com</v>
+      </c>
+      <c r="L37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>09 Aug 2012</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Cst Uk Ltd</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Application Engineer</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Nottingham</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Competitive salary</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Reed</v>
+      </c>
+      <c r="G38" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H38" t="str">
+        <v>Nottingham, Nottinghamshire</v>
+      </c>
+      <c r="I38" t="str">
+        <v/>
+      </c>
+      <c r="J38" t="str">
+        <v>Mohan Jayawardene</v>
+      </c>
+      <c r="K38" t="str">
+        <v>Mohan.Jayawardene@cst.com</v>
+      </c>
+      <c r="L38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>17 Aug 2012</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Ctrack Ltd</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Software Developer</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Leeds</v>
+      </c>
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="F39" t="str">
         <v>Corporate website</v>
       </c>
-      <c r="G37" t="str">
-        <v>Click here to view Job Advert</v>
-      </c>
-      <c r="H37" t="str">
+      <c r="G39" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H39" t="str">
+        <v>Harrow, Middlesex</v>
+      </c>
+      <c r="I39" t="str">
+        <v>02085-152900</v>
+      </c>
+      <c r="J39" t="str">
+        <v>Emma Rooke</v>
+      </c>
+      <c r="K39" t="str">
+        <v>emma.rooke@ctrack.co.uk</v>
+      </c>
+      <c r="L39" t="str">
+        <v>hr@ctrack.co.uk</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>07 Aug 2012</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Cummins (Korn/Ferry Futurestep)</v>
+      </c>
+      <c r="C40" t="str">
+        <v>IT Business Analyst</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Canterbury</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Competetive</v>
+      </c>
+      <c r="F40" t="str">
+        <v>LinkedIn</v>
+      </c>
+      <c r="G40" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H40" t="str">
+        <v/>
+      </c>
+      <c r="I40" t="str">
+        <v/>
+      </c>
+      <c r="J40" t="str">
+        <v>Shane Makin</v>
+      </c>
+      <c r="K40" t="str">
+        <v>shane.makin@cummins.com</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>16 Aug 2012</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Cunningham Lindsey Holdings (Uk) Ltd</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Trainee Application Support Analyst</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Bristol</v>
+      </c>
+      <c r="E41" t="str">
+        <v>£Competitive</v>
+      </c>
+      <c r="F41" t="str">
+        <v>TotalJobs</v>
+      </c>
+      <c r="G41" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H41" t="str">
+        <v>Reading, Berkshire</v>
+      </c>
+      <c r="I41" t="str">
+        <v>01189567890</v>
+      </c>
+      <c r="J41" t="str">
+        <v>Simon Hughes</v>
+      </c>
+      <c r="K41" t="str">
+        <v>simon.hughes@cl-uk.com</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>14 Aug 2012</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Cupid Plc</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Mobile Developer</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Edinburgh</v>
+      </c>
+      <c r="E42" t="str">
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <v>LinkedIn</v>
+      </c>
+      <c r="G42" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H42" t="str">
+        <v>Edinburgh, Midlothian</v>
+      </c>
+      <c r="I42" t="str">
+        <v/>
+      </c>
+      <c r="J42" t="str">
+        <v xml:space="preserve">Konstantin Yaroshenko </v>
+      </c>
+      <c r="K42" t="str">
+        <v>konstantin.yaroshenko@cupidplc.com</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>07 Aug 2012</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Currencies Direct Holdings Ltd</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Business Systems Analyst</v>
+      </c>
+      <c r="D43" t="str">
+        <v>City of London</v>
+      </c>
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v>LinkedIn</v>
+      </c>
+      <c r="G43" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H43" t="str">
+        <v>London</v>
+      </c>
+      <c r="I43" t="str">
+        <v>02078130332</v>
+      </c>
+      <c r="J43" t="str">
+        <v/>
+      </c>
+      <c r="K43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>09 Aug 2012</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Curvy Kate Ltd</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Assistant Web &amp; Graphic Designer for Curvy Kate Ltd</v>
+      </c>
+      <c r="D44" t="str">
+        <v>North London</v>
+      </c>
+      <c r="E44" t="str">
+        <v>£16,000 to 18,000 p/a</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Creativepool</v>
+      </c>
+      <c r="G44" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H44" t="str">
+        <v>Pinner, Middlesex</v>
+      </c>
+      <c r="I44" t="str">
+        <v/>
+      </c>
+      <c r="J44" t="str">
+        <v>Denys Dyachuk</v>
+      </c>
+      <c r="K44" t="str">
+        <v>denys@curvykate.com</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>09 Aug 2012</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Customer Service Direct Ltd</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Web Support Supervisor</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Ipswich</v>
+      </c>
+      <c r="E45" t="str">
+        <v>£29,236 - £31,570</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Jobsite</v>
+      </c>
+      <c r="G45" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H45" t="str">
+        <v>London</v>
+      </c>
+      <c r="I45" t="str">
+        <v>020-7356-5000</v>
+      </c>
+      <c r="J45" t="str">
+        <v/>
+      </c>
+      <c r="K45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>09 Aug 2012</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Customer Service Direct Ltd</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Web Support Analyst</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Ipswich</v>
+      </c>
+      <c r="E46" t="str">
+        <v>£22,958 - £26,276</v>
+      </c>
+      <c r="F46" t="str">
+        <v>Jobsite</v>
+      </c>
+      <c r="G46" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H46" t="str">
+        <v>London</v>
+      </c>
+      <c r="I46" t="str">
+        <v>020-7356-5000</v>
+      </c>
+      <c r="J46" t="str">
+        <v/>
+      </c>
+      <c r="K46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>07 Aug 2012</v>
+      </c>
+      <c r="B47" t="str">
+        <v>CWST Metal improvement Company</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Technical Sales Engineer</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Sunderland</v>
+      </c>
+      <c r="E47" t="str">
+        <v>From £25,000 to £30,000 per annum Post provides car + telephone/comp p</v>
+      </c>
+      <c r="F47" t="str">
+        <v>TotalJobs</v>
+      </c>
+      <c r="G47" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H47" t="str">
+        <v/>
+      </c>
+      <c r="I47" t="str">
+        <v/>
+      </c>
+      <c r="J47" t="str">
+        <v>Steve Meakin</v>
+      </c>
+      <c r="K47" t="str">
+        <v>steve_meakin@metalimprovement.com</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>15 Aug 2012</v>
+      </c>
+      <c r="B48" t="str">
+        <v>D A Lortal</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Digital Manager - Biotherm / Clarisonic (Luxe Division)</v>
+      </c>
+      <c r="D48" t="str">
+        <v>London</v>
+      </c>
+      <c r="E48" t="str">
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <v>LinkedIn</v>
+      </c>
+      <c r="G48" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H48" t="str">
+        <v>Havant, Hampshire</v>
+      </c>
+      <c r="I48" t="str">
+        <v/>
+      </c>
+      <c r="J48" t="str">
+        <v/>
+      </c>
+      <c r="K48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>11 Aug 2012</v>
+      </c>
+      <c r="B49" t="str">
+        <v>D A S</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Technical Sales Manager</v>
+      </c>
+      <c r="D49" t="str">
+        <v>United Kingdom</v>
+      </c>
+      <c r="E49" t="str">
+        <v/>
+      </c>
+      <c r="F49" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G49" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H49" t="str">
+        <v>Mansfield, Nottinghamshire</v>
+      </c>
+      <c r="I49" t="str">
+        <v>08001383052</v>
+      </c>
+      <c r="J49" t="str">
+        <v>Lindsey Stevenson</v>
+      </c>
+      <c r="K49" t="str">
+        <v>LindseyStevenson@dastechnology.co.uk</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>09 Aug 2012</v>
+      </c>
+      <c r="B50" t="str">
+        <v>D R L</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Leadership Trainer - Up to £50,000 - BL6 6QQ</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Bolton</v>
+      </c>
+      <c r="E50" t="str">
+        <v>From £40,000 to £50,000 per annum Dependant on experience</v>
+      </c>
+      <c r="F50" t="str">
+        <v>TotalJobs</v>
+      </c>
+      <c r="G50" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H50" t="str">
+        <v>Doncaster, South Yorkshire</v>
+      </c>
+      <c r="I50" t="str">
+        <v/>
+      </c>
+      <c r="J50" t="str">
+        <v>Ibi Jack</v>
+      </c>
+      <c r="K50" t="str">
+        <v>ibi.jack@drllimited.co.uk</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>15 Aug 2012</v>
+      </c>
+      <c r="B51" t="str">
+        <v>D R L</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Digital Brand Manager</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Bolton</v>
+      </c>
+      <c r="E51" t="str">
+        <v>£25,000 per annum BL3</v>
+      </c>
+      <c r="F51" t="str">
+        <v>TotalJobs</v>
+      </c>
+      <c r="G51" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H51" t="str">
+        <v>Doncaster, South Yorkshire</v>
+      </c>
+      <c r="I51" t="str">
+        <v/>
+      </c>
+      <c r="J51" t="str">
+        <v>Ibi Jack</v>
+      </c>
+      <c r="K51" t="str">
+        <v>ibi.jack@drllimited.co.uk</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>13 Aug 2012</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Dage Holdings Ltd</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Software Engineer</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Colchester</v>
+      </c>
+      <c r="E52" t="str">
+        <v/>
+      </c>
+      <c r="F52" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G52" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H52" t="str">
+        <v>Aylesbury, Buckinghamshire</v>
+      </c>
+      <c r="I52" t="str">
+        <v>01296-317800</v>
+      </c>
+      <c r="J52" t="str">
+        <v>Sandra Huggett</v>
+      </c>
+      <c r="K52" t="str">
+        <v xml:space="preserve">sandra.huggett@nordsondage.com  </v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>02 Aug 2012</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Darryl Mattocks</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Senior Web Developer</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Oxford</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Up to 40K + options</v>
+      </c>
+      <c r="F53" t="str">
+        <v>EngineerBoard</v>
+      </c>
+      <c r="G53" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H53" t="str">
+        <v/>
+      </c>
+      <c r="I53" t="str">
+        <v/>
+      </c>
+      <c r="J53" t="str">
+        <v>Darryl Mattocks</v>
+      </c>
+      <c r="K53" t="str">
+        <v>Darryl.Mattocks@Enistic.com</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>02 Aug 2012</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Darryl Mattocks</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Senior Web Developer</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Oxford</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Up to 40K + options</v>
+      </c>
+      <c r="F54" t="str">
+        <v>PurelyIT</v>
+      </c>
+      <c r="G54" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H54" t="str">
+        <v/>
+      </c>
+      <c r="I54" t="str">
+        <v/>
+      </c>
+      <c r="J54" t="str">
+        <v>Darryl Mattocks</v>
+      </c>
+      <c r="K54" t="str">
+        <v>Darryl.Mattocks@Enistic.com</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>16 Aug 2012</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Datalinx Computer Systems Ltd</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Application Programmer</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Link</v>
+      </c>
+      <c r="E55" t="str">
+        <v/>
+      </c>
+      <c r="F55" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G55" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H55" t="str">
+        <v>East Grinstead, West Sussex</v>
+      </c>
+      <c r="I55" t="str">
+        <v>01342-324469</v>
+      </c>
+      <c r="J55" t="str">
+        <v>Jack Lee</v>
+      </c>
+      <c r="K55" t="str">
+        <v>jack.lee@datalinx.co.uk</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>10 Aug 2012</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Dbis (Software &amp; Automation) Ltd</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Software Developer</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Doncaster</v>
+      </c>
+      <c r="E56" t="str">
+        <v>£20,000.00 - £25,000.00 per year</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Monster</v>
+      </c>
+      <c r="G56" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H56" t="str">
+        <v>Doncaster, South Yorkshire</v>
+      </c>
+      <c r="I56" t="str">
+        <v>01302-330837</v>
+      </c>
+      <c r="J56" t="str">
+        <v>Graham Allmendinger</v>
+      </c>
+      <c r="K56" t="str">
+        <v>graham.allmendinger@dbcontrols.co.uk.</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>10 Aug 2012</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Decisive Marketing</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Junior Graphic / Web designer</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Fareham</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Salary is by negotiation, depending on experience</v>
+      </c>
+      <c r="F57" t="str">
+        <v>TotalJobs</v>
+      </c>
+      <c r="G57" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H57" t="str">
+        <v/>
+      </c>
+      <c r="I57" t="str">
+        <v/>
+      </c>
+      <c r="J57" t="str">
+        <v>Suzie Kim</v>
+      </c>
+      <c r="K57" t="str">
+        <v>suzie.kim@decisivemarketing.co.uk</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>09 Aug 2012</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Denso International U K Ltd</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Software Design Engineer</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Coventry</v>
+      </c>
+      <c r="E58" t="str">
+        <v>Competitive &amp; Attractive</v>
+      </c>
+      <c r="F58" t="str">
+        <v>TopEngineeringJobs</v>
+      </c>
+      <c r="G58" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H58" t="str">
+        <v>Hatfield, Hertfordshire</v>
+      </c>
+      <c r="I58" t="str">
+        <v>01707-282400</v>
+      </c>
+      <c r="J58" t="str">
+        <v>Allan Glaister</v>
+      </c>
+      <c r="K58" t="str">
+        <v>allan.glaister@denso-europe.com</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>15 Aug 2012</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Derwentside Homes Ltd</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Business Systems Analyst (Performance)</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Stanley</v>
+      </c>
+      <c r="E59" t="str">
+        <v>£27,500 per annum</v>
+      </c>
+      <c r="F59" t="str">
+        <v>Sector1</v>
+      </c>
+      <c r="G59" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H59" t="str">
+        <v>Crook, County Durham</v>
+      </c>
+      <c r="I59" t="str">
+        <v/>
+      </c>
+      <c r="J59" t="str">
+        <v>Fred Wheatley</v>
+      </c>
+      <c r="K59" t="str">
+        <v>f.wheatley@derwentsidehomes.co.uk</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>17 Aug 2012</v>
+      </c>
+      <c r="B60" t="str">
+        <v>DHL Supply Chain</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Systems Business Analyst</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Wellingborough</v>
+      </c>
+      <c r="E60" t="str">
+        <v/>
+      </c>
+      <c r="F60" t="str">
+        <v>CvLibrary</v>
+      </c>
+      <c r="G60" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H60" t="str">
+        <v/>
+      </c>
+      <c r="I60" t="str">
+        <v/>
+      </c>
+      <c r="J60" t="str">
+        <v>James Cripps</v>
+      </c>
+      <c r="K60" t="str">
+        <v>james.cripps@dhl.co.uk</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>09 Aug 2012</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Diamond Forms Ltd</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Graphic Designer</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Stoke-on-Trent</v>
+      </c>
+      <c r="E61" t="str">
+        <v>£7.00 per hour</v>
+      </c>
+      <c r="F61" t="str">
+        <v>jobcentreplus</v>
+      </c>
+      <c r="G61" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H61" t="str">
+        <v>Stoke-on-Trent, Staffordshire</v>
+      </c>
+      <c r="I61" t="str">
+        <v>01782-261001</v>
+      </c>
+      <c r="J61" t="str">
+        <v>Pam Heath</v>
+      </c>
+      <c r="K61" t="str">
+        <v>pamheath@diamondforms.co.uk</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>13 Aug 2012</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Dictatenow Ltd</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Graduate Junior Developer/Programmer</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Hertfordshire</v>
+      </c>
+      <c r="E62" t="str">
+        <v>From £18,000 to £22,000 per annum</v>
+      </c>
+      <c r="F62" t="str">
+        <v>TotalJobs</v>
+      </c>
+      <c r="G62" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H62" t="str">
+        <v>Hemel Hempstead, Hertfordshire</v>
+      </c>
+      <c r="I62" t="str">
+        <v/>
+      </c>
+      <c r="J62" t="str">
+        <v>Maxine Park</v>
+      </c>
+      <c r="K62" t="str">
+        <v>maxine@dictatenow.com</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>14 Aug 2012</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Digi International Ltd</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Technical Solution Architect (m/f)</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Ilkley</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Upto £40,000 per annum + commission + pension</v>
+      </c>
+      <c r="F63" t="str">
+        <v>CwJobs</v>
+      </c>
+      <c r="G63" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H63" t="str">
+        <v>Bristol, Avon</v>
+      </c>
+      <c r="I63" t="str">
+        <v>01372-224760</v>
+      </c>
+      <c r="J63" t="str">
+        <v>Sabine Krieg</v>
+      </c>
+      <c r="K63" t="str">
+        <v>sabine.krieg@digi.com</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>17 Aug 2012</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Digital RF Ltd</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Electronics Software / Hardware design Engineer.</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Chelmsford</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Salary negotiable</v>
+      </c>
+      <c r="F64" t="str">
+        <v>Reed</v>
+      </c>
+      <c r="G64" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H64" t="str">
+        <v/>
+      </c>
+      <c r="I64" t="str">
+        <v/>
+      </c>
+      <c r="J64" t="str">
+        <v/>
+      </c>
+      <c r="K64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>02 Aug 2012</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Dla Piper Uk Llp</v>
+      </c>
+      <c r="C65" t="str">
+        <v>PHP Developer Zend</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Leeds</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Competitive</v>
+      </c>
+      <c r="F65" t="str">
+        <v>JobSearch</v>
+      </c>
+      <c r="G65" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H65" t="str">
+        <v>London</v>
+      </c>
+      <c r="I65" t="str">
+        <v/>
+      </c>
+      <c r="J65" t="str">
+        <v>Mark Beardmore</v>
+      </c>
+      <c r="K65" t="str">
+        <v xml:space="preserve">mark.beardmore@dlapiper.com </v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>13 Aug 2012</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Dla Piper Uk Llp</v>
+      </c>
+      <c r="C66" t="str">
+        <v>RAN Network Project Manager</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Birmingham</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Competitive + Competitive salary and benefits</v>
+      </c>
+      <c r="F66" t="str">
+        <v>JobSearch</v>
+      </c>
+      <c r="G66" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H66" t="str">
+        <v>London</v>
+      </c>
+      <c r="I66" t="str">
+        <v/>
+      </c>
+      <c r="J66" t="str">
+        <v>Mark Beardmore</v>
+      </c>
+      <c r="K66" t="str">
+        <v xml:space="preserve">mark.beardmore@dlapiper.com </v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>07 Aug 2012</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Dmg Radio Investments Ltd</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Software Engineer</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Market</v>
+      </c>
+      <c r="E67" t="str">
+        <v/>
+      </c>
+      <c r="F67" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G67" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H67" t="str">
+        <v>London</v>
+      </c>
+      <c r="I67" t="str">
+        <v>020-7250-6600</v>
+      </c>
+      <c r="J67" t="str">
+        <v>Jeremy Cooper</v>
+      </c>
+      <c r="K67" t="str">
+        <v>jeremy.cooper@hobsons.com</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>08 Aug 2012</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Dollar Financial Group</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Network Engineer</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Nottingham</v>
+      </c>
+      <c r="E68" t="str">
+        <v>Competitive</v>
+      </c>
+      <c r="F68" t="str">
+        <v>LinkedIn</v>
+      </c>
+      <c r="G68" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H68" t="str">
+        <v/>
+      </c>
+      <c r="I68" t="str">
+        <v/>
+      </c>
+      <c r="J68" t="str">
+        <v/>
+      </c>
+      <c r="K68" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>09 Aug 2012</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Dollar Financial U K Ltd</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Network Engineer</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Nottingham</v>
+      </c>
+      <c r="E69" t="str">
+        <v>From £55,000 to £65,000 per annum + Benefits</v>
+      </c>
+      <c r="F69" t="str">
+        <v>CwJobs</v>
+      </c>
+      <c r="G69" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H69" t="str">
+        <v>London</v>
+      </c>
+      <c r="I69" t="str">
+        <v/>
+      </c>
+      <c r="J69" t="str">
+        <v>Neena Tebbutt</v>
+      </c>
+      <c r="K69" t="str">
+        <v>neena.tebbutt@dfguk.com</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>13 Aug 2012</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Domestic Energy Assessors Ltd</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Web Developer</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Dartford</v>
+      </c>
+      <c r="E70" t="str">
+        <v>From £20,000 to £40,000 per annum Salary will depend on experience</v>
+      </c>
+      <c r="F70" t="str">
+        <v>TotalJobs</v>
+      </c>
+      <c r="G70" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H70" t="str">
+        <v>Dartford, Kent</v>
+      </c>
+      <c r="I70" t="str">
+        <v/>
+      </c>
+      <c r="J70" t="str">
+        <v>Sherie Pease</v>
+      </c>
+      <c r="K70" t="str">
+        <v>sherie@epoda.co.uk</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>11 Aug 2012</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Domino Printing Sciences Plc</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Test Engineer</v>
+      </c>
+      <c r="D71" t="str">
+        <v>United Kingdom</v>
+      </c>
+      <c r="E71" t="str">
+        <v/>
+      </c>
+      <c r="F71" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G71" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H71" t="str">
+        <v>Cambridge, Cambridgeshire</v>
+      </c>
+      <c r="I71" t="str">
+        <v/>
+      </c>
+      <c r="J71" t="str">
+        <v>Yafei Ping</v>
+      </c>
+      <c r="K71" t="str">
+        <v>yafei.ping@domino-uk.com</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>02 Aug 2012</v>
+      </c>
+      <c r="B72" t="str">
+        <v>DoorStop International Ltd</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Door Production Software Developer</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Nottingham</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Upto £25,000 per annum , potential of promotion for the right person</v>
+      </c>
+      <c r="F72" t="str">
+        <v>TotalJobs</v>
+      </c>
+      <c r="G72" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H72" t="str">
+        <v>Sutton-in-Ashfield, Nottinghamshire</v>
+      </c>
+      <c r="I72" t="str">
+        <v>01623-446336</v>
+      </c>
+      <c r="J72" t="str">
+        <v>Jackie James</v>
+      </c>
+      <c r="K72" t="str">
+        <v>jackie.james@door-stop.co.uk</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>08 Aug 2012</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Doosan Power Systems Ltd</v>
+      </c>
+      <c r="C73" t="str">
+        <v>ASSISTANT BUSINESS ANALYST</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Crawley</v>
+      </c>
+      <c r="E73" t="str">
+        <v>£Attractive + Benefits</v>
+      </c>
+      <c r="F73" t="str">
+        <v>Jobsite</v>
+      </c>
+      <c r="G73" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H73" t="str">
+        <v>Crawley, West Sussex</v>
+      </c>
+      <c r="I73" t="str">
+        <v/>
+      </c>
+      <c r="J73" t="str">
+        <v>Karen Tebbutt</v>
+      </c>
+      <c r="K73" t="str">
+        <v>karen.tebbutt@doosan.com</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>08 Aug 2012</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Dootrix Ltd</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Software Developer C# / C++ / . Net / WPF / iOS / Agile</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Portsmouth</v>
+      </c>
+      <c r="E74" t="str">
+        <v>36,000 - 45,000</v>
+      </c>
+      <c r="F74" t="str">
+        <v>Jobsite</v>
+      </c>
+      <c r="G74" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H74" t="str">
+        <v>Southsea</v>
+      </c>
+      <c r="I74" t="str">
+        <v/>
+      </c>
+      <c r="J74" t="str">
+        <v>Rob Borley</v>
+      </c>
+      <c r="K74" t="str">
+        <v>rob.borley@dootrix.com</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>06 Aug 2012</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Dotdigital Group Plc</v>
+      </c>
+      <c r="C75" t="str">
+        <v>PPC/SEO Account Manager</v>
+      </c>
+      <c r="D75" t="str">
+        <v>London</v>
+      </c>
+      <c r="E75" t="str">
+        <v>£28,000 - £30,000 per annum</v>
+      </c>
+      <c r="F75" t="str">
+        <v>Reed</v>
+      </c>
+      <c r="G75" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H75" t="str">
+        <v>London</v>
+      </c>
+      <c r="I75" t="str">
+        <v/>
+      </c>
+      <c r="J75" t="str">
+        <v>Peter Simmonds</v>
+      </c>
+      <c r="K75" t="str">
+        <v>peter.simmonds@dotdigitalgroup.co.uk</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Casewise Ltd</v>
+      </c>
+      <c r="B76" t="str">
+        <v>02 Sep 2011</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Project Manager and Business Analyst</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Watford</v>
+      </c>
+      <c r="E76" t="str">
+        <v/>
+      </c>
+      <c r="F76" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G76" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H76" t="str">
+        <v>WATFORD</v>
+      </c>
+      <c r="I76" t="str">
+        <v>01923 830300</v>
+      </c>
+      <c r="J76" t="str">
+        <v>David Black</v>
+      </c>
+      <c r="K76" t="str">
+        <v>David.Black@casewise.com</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Casino Tours Abroad</v>
+      </c>
+      <c r="B77" t="str">
+        <v>02 Sep 2011</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Software Developer</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Newton</v>
+      </c>
+      <c r="E77" t="str">
+        <v/>
+      </c>
+      <c r="F77" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G77" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H77" t="str">
+        <v>WEMBLEY</v>
+      </c>
+      <c r="I77" t="str">
+        <v>020 87951182</v>
+      </c>
+      <c r="J77" t="str">
+        <v>Alan Hughes</v>
+      </c>
+      <c r="K77" t="str">
+        <v>alan@casinota.co.uk</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Chaos Design Ltd</v>
+      </c>
+      <c r="B78" t="str">
+        <v>31 Aug 2011</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Web Designer</v>
+      </c>
+      <c r="D78" t="str">
+        <v>High Street</v>
+      </c>
+      <c r="E78" t="str">
+        <v/>
+      </c>
+      <c r="F78" t="str">
+        <v>LinkedIn</v>
+      </c>
+      <c r="G78" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H78" t="str">
+        <v>GUILDFORD</v>
+      </c>
+      <c r="I78" t="str">
+        <v>01483 557800</v>
+      </c>
+      <c r="J78" t="str">
+        <v>Peter Campbell</v>
+      </c>
+      <c r="K78" t="str">
+        <v>peter.c@chaosdesign.com</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Civica Systems Ltd</v>
+      </c>
+      <c r="B79" t="str">
+        <v>01 Sep 2011</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Net Developer</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Altrincham</v>
+      </c>
+      <c r="E79" t="str">
+        <v/>
+      </c>
+      <c r="F79" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G79" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H79" t="str">
+        <v>ROTHERHAM</v>
+      </c>
+      <c r="I79" t="str">
+        <v>01709 787787</v>
+      </c>
+      <c r="J79" t="str">
+        <v>Adam Knight</v>
+      </c>
+      <c r="K79" t="str">
+        <v>aknight@civica.co.uk</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Coda Sci Sys</v>
+      </c>
+      <c r="B80" t="str">
+        <v>01 Sep 2011</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Spacecraft On Board Software Engineer SSL HRR RTR</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Bristol</v>
+      </c>
+      <c r="E80" t="str">
+        <v/>
+      </c>
+      <c r="F80" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G80" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H80" t="str">
+        <v>CHIPPENHAM</v>
+      </c>
+      <c r="I80" t="str">
+        <v>01249 466466</v>
+      </c>
+      <c r="J80" t="str">
+        <v>Peter Murden</v>
+      </c>
+      <c r="K80" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Code Computer Love Ltd</v>
+      </c>
+      <c r="B81" t="str">
+        <v>01 Sep 2011</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Web Developer</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Manchester</v>
+      </c>
+      <c r="E81" t="str">
+        <v/>
+      </c>
+      <c r="F81" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G81" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H81" t="str">
+        <v>MANCHESTER</v>
+      </c>
+      <c r="I81" t="str">
+        <v>0161 2762080</v>
+      </c>
+      <c r="J81" t="str">
+        <v>Kirsty Hunt</v>
+      </c>
+      <c r="K81" t="str">
+        <v>kirsty.hunt@codecomputerlove.com</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Coexis Software Ltd</v>
+      </c>
+      <c r="B82" t="str">
+        <v>01 Sep 2011</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Business Analyst</v>
+      </c>
+      <c r="D82" t="str">
+        <v>United Kingdom</v>
+      </c>
+      <c r="E82" t="str">
+        <v/>
+      </c>
+      <c r="F82" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G82" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H82" t="str">
+        <v>RICKMANSWORTH</v>
+      </c>
+      <c r="I82" t="str">
+        <v>01923 720477</v>
+      </c>
+      <c r="J82" t="str">
+        <v>Robert DeDominicis</v>
+      </c>
+      <c r="K82" t="str">
+        <v>rob.dedominicis@gbst.com</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Contemporary plc</v>
+      </c>
+      <c r="B83" t="str">
+        <v>02 Sep 2011</v>
+      </c>
+      <c r="C83" t="str">
+        <v>SAP BusinessObjects Business Intelligence Consultant</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Midlands</v>
+      </c>
+      <c r="E83" t="str">
+        <v>�30,000 to �55,000 + car allowance + bonus</v>
+      </c>
+      <c r="F83" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G83" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H83" t="str">
+        <v>ASCOT</v>
+      </c>
+      <c r="I83" t="str">
+        <v>01344 297600</v>
+      </c>
+      <c r="J83" t="str">
+        <v/>
+      </c>
+      <c r="K83" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Continental Data Graphics Ltd</v>
+      </c>
+      <c r="B84" t="str">
+        <v>02 Sep 2011</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Software Developer IV</v>
+      </c>
+      <c r="D84" t="str">
+        <v>City of London</v>
+      </c>
+      <c r="E84" t="str">
+        <v/>
+      </c>
+      <c r="F84" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G84" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H84" t="str">
+        <v>KNARESBOROUGH</v>
+      </c>
+      <c r="I84" t="str">
+        <v>01423 867867</v>
+      </c>
+      <c r="J84" t="str">
+        <v>Jack M. Patterson</v>
+      </c>
+      <c r="K84" t="str">
+        <v>mpatterson@cdgnow.com</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Contract Interiors International</v>
+      </c>
+      <c r="B85" t="str">
+        <v>02 Sep 2011</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Junior Coldfusion Developer</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Elstree</v>
+      </c>
+      <c r="E85" t="str">
+        <v>£23000 - £26000 per annum</v>
+      </c>
+      <c r="F85" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G85" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H85" t="str">
+        <v>BARNET</v>
+      </c>
+      <c r="I85" t="str">
+        <v>020 84403828</v>
+      </c>
+      <c r="J85" t="str">
+        <v>Hayley Roy</v>
+      </c>
+      <c r="K85" t="str">
+        <v>hroy@contractinteriors.co.uk</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Copa Ltd</v>
+      </c>
+      <c r="B86" t="str">
+        <v>02 Sep 2011</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Control Software Engineer</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Wolverhampton</v>
+      </c>
+      <c r="E86" t="str">
+        <v/>
+      </c>
+      <c r="F86" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G86" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H86" t="str">
+        <v>TONBRIDGE</v>
+      </c>
+      <c r="I86" t="str">
+        <v>01622 833914</v>
+      </c>
+      <c r="J86" t="str">
+        <v/>
+      </c>
+      <c r="K86" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Cospeed Limited</v>
+      </c>
+      <c r="B87" t="str">
+        <v>02 Sep 2011</v>
+      </c>
+      <c r="C87" t="str">
+        <v>ASP.NET/C#/SQL home developer in UK for Telecommunication company</v>
+      </c>
+      <c r="D87" t="str">
+        <v>United Kingdom</v>
+      </c>
+      <c r="E87" t="str">
+        <v>Negotiable Depending On Experience</v>
+      </c>
+      <c r="F87" t="str">
+        <v>JobServe</v>
+      </c>
+      <c r="G87" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H87" t="str">
+        <v>BOREHAMWOOD</v>
+      </c>
+      <c r="I87" t="str">
+        <v/>
+      </c>
+      <c r="J87" t="str">
+        <v>John Strudwick</v>
+      </c>
+      <c r="K87" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Cravenplan Computers Ltd</v>
+      </c>
+      <c r="B88" t="str">
+        <v>01 Sep 2011</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Web Development Programmer Cool ICE Mapper</v>
+      </c>
+      <c r="D88" t="str">
+        <v>United Kingdom</v>
+      </c>
+      <c r="E88" t="str">
+        <v>�40 per hour</v>
+      </c>
+      <c r="F88" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G88" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H88" t="str">
+        <v>SALISBURY</v>
+      </c>
+      <c r="I88" t="str">
+        <v>01747 858000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>Chris Stanbury</v>
+      </c>
+      <c r="K88" t="str">
+        <v>chris@cravenplan.co.uk</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Cravenplan Computers Ltd</v>
+      </c>
+      <c r="B89" t="str">
+        <v>01 Sep 2011</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Web Designer</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Salisbury</v>
+      </c>
+      <c r="E89" t="str">
+        <v>�20,000 - �30,000 + benefits</v>
+      </c>
+      <c r="F89" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G89" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H89" t="str">
+        <v>SALISBURY</v>
+      </c>
+      <c r="I89" t="str">
+        <v>01747 858000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>Chris Stanbury</v>
+      </c>
+      <c r="K89" t="str">
+        <v>chris@cravenplan.co.uk</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Cravenplan Computers Ltd</v>
+      </c>
+      <c r="B90" t="str">
+        <v>01 Sep 2011</v>
+      </c>
+      <c r="C90" t="str">
+        <v>SEO</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Salisbury</v>
+      </c>
+      <c r="E90" t="str">
+        <v>�15,000 - �45,000</v>
+      </c>
+      <c r="F90" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G90" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H90" t="str">
+        <v>SALISBURY</v>
+      </c>
+      <c r="I90" t="str">
+        <v>01747 858000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>Chris Stanbury</v>
+      </c>
+      <c r="K90" t="str">
+        <v>chris@cravenplan.co.uk</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Craneware plc</v>
+      </c>
+      <c r="B91" t="str">
+        <v>01 Sep 2011</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Developer</v>
+      </c>
+      <c r="D91" t="str">
+        <v>United Kingdom</v>
+      </c>
+      <c r="E91" t="str">
+        <v/>
+      </c>
+      <c r="F91" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G91" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H91" t="str">
+        <v>LIVINGSTON</v>
+      </c>
+      <c r="I91" t="str">
+        <v>01506 407666</v>
+      </c>
+      <c r="J91" t="str">
+        <v>Derek Peterson</v>
+      </c>
+      <c r="K91" t="str">
+        <v>d.peterson@craneware.com</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Craegmoor Ltd</v>
+      </c>
+      <c r="B92" t="str">
+        <v>02 Sep 2011</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Digital Marketing Specialist</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Worcester</v>
+      </c>
+      <c r="E92" t="str">
+        <v>�30,000 to �35,000 per annum</v>
+      </c>
+      <c r="F92" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G92" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H92" t="str">
+        <v>BRISTOL</v>
+      </c>
+      <c r="I92" t="str">
+        <v>0117 9593427</v>
+      </c>
+      <c r="J92" t="str">
+        <v xml:space="preserve">Caroline Thompson </v>
+      </c>
+      <c r="K92" t="str">
+        <v>caroline.thompson@craegmoor.co.uk</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Crossover Technologies</v>
+      </c>
+      <c r="B93" t="str">
+        <v>01 Sep 2011</v>
+      </c>
+      <c r="C93" t="str">
+        <v>VB and ASP . Net Developer</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Bristol</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Based on experience</v>
+      </c>
+      <c r="F93" t="str">
+        <v>PurelyIT</v>
+      </c>
+      <c r="G93" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H93" t="str">
+        <v>BRISTOL</v>
+      </c>
+      <c r="I93" t="str">
+        <v>08709 006410</v>
+      </c>
+      <c r="J93" t="str">
+        <v>Philip Barnard</v>
+      </c>
+      <c r="K93" t="str">
+        <v>phil.barnard@crossover.co.uk</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Cummins Turbo Technologies</v>
+      </c>
+      <c r="B94" t="str">
+        <v>01 Sep 2011</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Worldwide Test Technology Manager</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Huddersfield</v>
+      </c>
+      <c r="E94" t="str">
+        <v>£57,500 + Benefits (Pension, Fully Expensed Car or Car Option and Healthcare)</v>
+      </c>
+      <c r="F94" t="str">
+        <v>TopEngineeringJobs</v>
+      </c>
+      <c r="G94" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H94" t="str">
+        <v>HUDDERSFIELD</v>
+      </c>
+      <c r="I94" t="str">
+        <v>01484 538496</v>
+      </c>
+      <c r="J94" t="str">
+        <v>James Moorhouse</v>
+      </c>
+      <c r="K94" t="str">
+        <v>james.moorhouse@cummins.com</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Dazed Group</v>
+      </c>
+      <c r="B95" t="str">
+        <v>01 Sep 2011</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Digital Director</v>
+      </c>
+      <c r="D95" t="str">
+        <v>United Kingdom</v>
+      </c>
+      <c r="E95" t="str">
+        <v>Competitive</v>
+      </c>
+      <c r="F95" t="str">
+        <v>NMA</v>
+      </c>
+      <c r="G95" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H95" t="str">
+        <v>LONDON</v>
+      </c>
+      <c r="I95" t="str">
+        <v/>
+      </c>
+      <c r="J95" t="str">
+        <v>Alistair Allan</v>
+      </c>
+      <c r="K95" t="str">
+        <v>alistair@dazedgroup.com</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Definitive Applications</v>
+      </c>
+      <c r="B96" t="str">
+        <v>01 Sep 2011</v>
+      </c>
+      <c r="C96" t="str">
+        <v>NET Software Developer</v>
+      </c>
+      <c r="D96" t="str">
+        <v>United Kingdom</v>
+      </c>
+      <c r="E96" t="str">
+        <v>�23k per annum</v>
+      </c>
+      <c r="F96" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G96" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H96" t="str">
+        <v>NEWBURY</v>
+      </c>
+      <c r="I96" t="str">
+        <v>01635 551777</v>
+      </c>
+      <c r="J96" t="str">
+        <v>Salma Bryant</v>
+      </c>
+      <c r="K96" t="str">
+        <v>salma.bryant@sorce.co.uk</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Delcam</v>
+      </c>
+      <c r="B97" t="str">
+        <v>02 Sep 2011</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Software Engineer</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Birmingham</v>
+      </c>
+      <c r="E97" t="str">
+        <v/>
+      </c>
+      <c r="F97" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G97" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H97" t="str">
+        <v>BIRMINGHAM</v>
+      </c>
+      <c r="I97" t="str">
+        <v>0121 7665544</v>
+      </c>
+      <c r="J97" t="str">
+        <v/>
+      </c>
+      <c r="K97" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Dna Solutions</v>
+      </c>
+      <c r="B98" t="str">
+        <v>02 Sep 2011</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Post Sales Technical Support Engineers Technical Department</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Slough</v>
+      </c>
+      <c r="E98" t="str">
+        <v/>
+      </c>
+      <c r="F98" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G98" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H98" t="str">
+        <v>SLOUGH</v>
+      </c>
+      <c r="I98" t="str">
+        <v>01753 571186</v>
+      </c>
+      <c r="J98" t="str">
+        <v/>
+      </c>
+      <c r="K98" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>E2v Technologies Ltd</v>
+      </c>
+      <c r="B99" t="str">
+        <v>02 Sep 2011</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Software Development Engineer</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Bulk</v>
+      </c>
+      <c r="E99" t="str">
+        <v/>
+      </c>
+      <c r="F99" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G99" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H99" t="str">
+        <v>CHELMSFORD</v>
+      </c>
+      <c r="I99" t="str">
+        <v>01245 493493</v>
+      </c>
+      <c r="J99" t="str">
+        <v>Daren Carpenter</v>
+      </c>
+      <c r="K99" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Egain Communications Ltd</v>
+      </c>
+      <c r="B100" t="str">
+        <v>02 Sep 2011</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Web Developer</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Slough</v>
+      </c>
+      <c r="E100" t="str">
+        <v/>
+      </c>
+      <c r="F100" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G100" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H100" t="str">
+        <v>SLOUGH</v>
+      </c>
+      <c r="I100" t="str">
+        <v>01753 464646</v>
+      </c>
+      <c r="J100" t="str">
+        <v>Jamie Abayan</v>
+      </c>
+      <c r="K100" t="str">
+        <v>jabayan@egain.com</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Eleco plc</v>
+      </c>
+      <c r="B101" t="str">
+        <v>01 Sep 2011</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Digital Marketing &amp; Web Administrator</v>
+      </c>
+      <c r="D101" t="str">
+        <v>London</v>
+      </c>
+      <c r="E101" t="str">
+        <v>£25,000 - £28,000 per annum, pro-rata</v>
+      </c>
+      <c r="F101" t="str">
+        <v>Reed</v>
+      </c>
+      <c r="G101" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H101" t="str">
+        <v>WARE</v>
+      </c>
+      <c r="I101" t="str">
+        <v>01920 443830</v>
+      </c>
+      <c r="J101" t="str">
+        <v>Matthew Turner</v>
+      </c>
+      <c r="K101" t="str">
+        <v>matthew.turner@shoremountain.co.uk</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Envitia Ltd</v>
+      </c>
+      <c r="B102" t="str">
+        <v>01 Sep 2011</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Software Engineer</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Horsham</v>
+      </c>
+      <c r="E102" t="str">
+        <v/>
+      </c>
+      <c r="F102" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G102" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H102" t="str">
+        <v>HORSHAM</v>
+      </c>
+      <c r="I102" t="str">
+        <v>01403 273173</v>
+      </c>
+      <c r="J102" t="str">
+        <v>Nick Jones</v>
+      </c>
+      <c r="K102" t="str">
+        <v>nick.jones@tenet.co.uk</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Envitia Ltd</v>
+      </c>
+      <c r="B103" t="str">
+        <v>01 Sep 2011</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Senior Software Engineer</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Horsham</v>
+      </c>
+      <c r="E103" t="str">
+        <v/>
+      </c>
+      <c r="F103" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G103" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H103" t="str">
+        <v>HORSHAM</v>
+      </c>
+      <c r="I103" t="str">
+        <v>01403 273173</v>
+      </c>
+      <c r="J103" t="str">
+        <v>Nick Jones</v>
+      </c>
+      <c r="K103" t="str">
+        <v>nick.jones@tenet.co.uk</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>ESP Systex Ltd.</v>
+      </c>
+      <c r="B104" t="str">
+        <v>02 Sep 2011</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Network Administrator</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Kingston upon Hull</v>
+      </c>
+      <c r="E104" t="str">
+        <v>TBA</v>
+      </c>
+      <c r="F104" t="str">
+        <v>Jobsite</v>
+      </c>
+      <c r="G104" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H104" t="str">
+        <v>HULL</v>
+      </c>
+      <c r="I104" t="str">
+        <v>01482 - 384500</v>
+      </c>
+      <c r="J104" t="str">
+        <v>Terry Dunn</v>
+      </c>
+      <c r="K104" t="str">
+        <v>terry@espsystex.co.uk</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Expert Systems Ltd</v>
+      </c>
+      <c r="B105" t="str">
+        <v>02 Sep 2011</v>
+      </c>
+      <c r="C105" t="str">
+        <v>SEO</v>
+      </c>
+      <c r="D105" t="str">
+        <v>West Yorkshire</v>
+      </c>
+      <c r="E105" t="str">
+        <v/>
+      </c>
+      <c r="F105" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G105" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H105" t="str">
+        <v>DEWSBURY</v>
+      </c>
+      <c r="I105" t="str">
+        <v>01924 488612</v>
+      </c>
+      <c r="J105" t="str">
+        <v>Gareth James</v>
+      </c>
+      <c r="K105" t="str">
+        <v>gareth.james@eitex.co.uk</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Ezcctv.Com</v>
+      </c>
+      <c r="B106" t="str">
+        <v>01 Sep 2011</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Technical Support Specialist</v>
+      </c>
+      <c r="D106" t="str">
+        <v>United Kingdom</v>
+      </c>
+      <c r="E106" t="str">
+        <v/>
+      </c>
+      <c r="F106" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G106" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H106" t="str">
+        <v>LETCHWORTH GARDEN CITY</v>
+      </c>
+      <c r="I106" t="str">
+        <v>01462 708820</v>
+      </c>
+      <c r="J106" t="str">
+        <v>Joss Cohen</v>
+      </c>
+      <c r="K106" t="str">
+        <v>joss@ezcctv.com</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Fathom Business Solutions</v>
+      </c>
+      <c r="B107" t="str">
+        <v>02 Sep 2011</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Applications Developer</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Fathom</v>
+      </c>
+      <c r="E107" t="str">
+        <v>£28000 - £35000 p.a.</v>
+      </c>
+      <c r="F107" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G107" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H107" t="str">
+        <v>PURLEY</v>
+      </c>
+      <c r="I107" t="str">
+        <v>08451 235810</v>
+      </c>
+      <c r="J107" t="str">
+        <v>Matt Gates</v>
+      </c>
+      <c r="K107" t="str">
+        <v>mg@fathomgroup.co.uk</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Fernlea</v>
+      </c>
+      <c r="B108" t="str">
+        <v>01 Sep 2011</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Digital Marketing Specialist</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Worcester</v>
+      </c>
+      <c r="E108" t="str">
+        <v>�30,000 to �35,000 per annum</v>
+      </c>
+      <c r="F108" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G108" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H108" t="str">
+        <v>BROCKENHURST</v>
+      </c>
+      <c r="I108" t="str">
+        <v>01590 623237</v>
+      </c>
+      <c r="J108" t="str">
+        <v xml:space="preserve">Caroline Thompson </v>
+      </c>
+      <c r="K108" t="str">
+        <v>caroline.thompson@craegmoor.co.uk</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Fidessa plc</v>
+      </c>
+      <c r="B109" t="str">
+        <v>01 Sep 2011</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Java Web Developer F</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Woking</v>
+      </c>
+      <c r="E109" t="str">
+        <v/>
+      </c>
+      <c r="F109" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G109" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H109" t="str">
+        <v>WOKING</v>
+      </c>
+      <c r="I109" t="str">
+        <v>01483 206300</v>
+      </c>
+      <c r="J109" t="str">
+        <v>Angie Walker</v>
+      </c>
+      <c r="K109" t="str">
+        <v>angie.walker@fidessa.com</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Fidessa plc</v>
+      </c>
+      <c r="B110" t="str">
+        <v>01 Sep 2011</v>
+      </c>
+      <c r="C110" t="str">
+        <v>SAP ABAP Developer RBF</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Woking</v>
+      </c>
+      <c r="E110" t="str">
+        <v/>
+      </c>
+      <c r="F110" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G110" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H110" t="str">
+        <v>WOKING</v>
+      </c>
+      <c r="I110" t="str">
+        <v>01483 206300</v>
+      </c>
+      <c r="J110" t="str">
+        <v>Angie Walker</v>
+      </c>
+      <c r="K110" t="str">
+        <v>angie.walker@fidessa.com</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>G Jan Computers Ltd</v>
+      </c>
+      <c r="B111" t="str">
+        <v>02 Sep 2011</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Software Engineer</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Redbourn</v>
+      </c>
+      <c r="E111" t="str">
+        <v/>
+      </c>
+      <c r="F111" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G111" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H111" t="str">
+        <v>HEMEL HEMPSTEAD</v>
+      </c>
+      <c r="I111" t="str">
+        <v>01442 241396</v>
+      </c>
+      <c r="J111" t="str">
+        <v>Gita Patel</v>
+      </c>
+      <c r="K111" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>G M W Mobile Servicing</v>
+      </c>
+      <c r="B112" t="str">
+        <v>29 Aug 2011</v>
+      </c>
+      <c r="C112" t="str">
+        <v>SEO Manager</v>
+      </c>
+      <c r="D112" t="str">
+        <v>London</v>
+      </c>
+      <c r="E112" t="str">
+        <v/>
+      </c>
+      <c r="F112" t="str">
+        <v>Corporate website</v>
+      </c>
+      <c r="G112" t="str">
+        <v>Click here to view Job Advert</v>
+      </c>
+      <c r="H112" t="str">
         <v>ST ALBANS</v>
       </c>
-      <c r="I37" t="str">
+      <c r="I112" t="str">
         <v>01727 823797</v>
       </c>
-      <c r="J37" t="str">
-        <v/>
-      </c>
-      <c r="K37" t="str">
+      <c r="J112" t="str">
+        <v/>
+      </c>
+      <c r="K112" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K37"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L112"/>
   </ignoredErrors>
 </worksheet>
 </file>